--- a/Code/Results/Cases/Case_5_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.654655983875728</v>
+        <v>4.171712637345081</v>
       </c>
       <c r="C2">
-        <v>0.5260063799446755</v>
+        <v>1.192608770921197</v>
       </c>
       <c r="D2">
-        <v>0.3427752231915804</v>
+        <v>0.006101783662264992</v>
       </c>
       <c r="E2">
-        <v>0.06224944992876402</v>
+        <v>1.481376300786124</v>
       </c>
       <c r="F2">
-        <v>6.524855500270093</v>
+        <v>1.713139133834304</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,30 +451,36 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1424606705055567</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6716221343780262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.4547035789328291</v>
+      </c>
+      <c r="O2">
+        <v>1.325020494883788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.271110238542917</v>
+        <v>3.590109738456079</v>
       </c>
       <c r="C3">
-        <v>0.4494248337557281</v>
+        <v>1.028272904381367</v>
       </c>
       <c r="D3">
-        <v>0.304276725355038</v>
+        <v>0.006653268653481703</v>
       </c>
       <c r="E3">
-        <v>0.05614650314550573</v>
+        <v>1.261914543025185</v>
       </c>
       <c r="F3">
-        <v>5.715993653243942</v>
+        <v>1.498352446121814</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -486,30 +498,36 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1231894232698956</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5764023959976114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.5019837164758982</v>
+      </c>
+      <c r="O3">
+        <v>1.161400211066947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.042207708435285</v>
+        <v>3.238941784710448</v>
       </c>
       <c r="C4">
-        <v>0.4037168215228064</v>
+        <v>0.9289971460108291</v>
       </c>
       <c r="D4">
-        <v>0.2812699201979711</v>
+        <v>0.007086755358056251</v>
       </c>
       <c r="E4">
-        <v>0.05250619601056172</v>
+        <v>1.131315581673022</v>
       </c>
       <c r="F4">
-        <v>5.232578981805574</v>
+        <v>1.371622307380406</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -527,30 +545,36 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1116875857879158</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5195727304863595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.5326074581553186</v>
+      </c>
+      <c r="O4">
+        <v>1.065183755290306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.950336861713225</v>
+        <v>3.097084377492024</v>
       </c>
       <c r="C5">
-        <v>0.3853633104129983</v>
+        <v>0.888876490616525</v>
       </c>
       <c r="D5">
-        <v>0.2720270409480463</v>
+        <v>0.007284327401823276</v>
       </c>
       <c r="E5">
-        <v>0.05104582141711234</v>
+        <v>1.078963861025002</v>
       </c>
       <c r="F5">
-        <v>5.038403797522875</v>
+        <v>1.321110368918838</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -568,30 +592,36 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.107071788648252</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4967649826364848</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.5454622226444812</v>
+      </c>
+      <c r="O5">
+        <v>1.026908747119663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.935160116033984</v>
+        <v>3.07359761980382</v>
       </c>
       <c r="C6">
-        <v>0.3823306606684582</v>
+        <v>0.882232708926324</v>
       </c>
       <c r="D6">
-        <v>0.27049956531107</v>
+        <v>0.007318319326079958</v>
       </c>
       <c r="E6">
-        <v>0.0508046178910142</v>
+        <v>1.070318631377205</v>
       </c>
       <c r="F6">
-        <v>5.00631776053774</v>
+        <v>1.312786797694471</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -609,30 +639,36 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1063093230316774</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4929973249634401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.5476187252889737</v>
+      </c>
+      <c r="O6">
+        <v>1.020605973684084</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.040963310728046</v>
+        <v>3.237023906761181</v>
       </c>
       <c r="C7">
-        <v>0.4034682654877599</v>
+        <v>0.9284548003269038</v>
       </c>
       <c r="D7">
-        <v>0.2811447631558792</v>
+        <v>0.007089338762749975</v>
       </c>
       <c r="E7">
-        <v>0.05248641216547156</v>
+        <v>1.130606247840944</v>
       </c>
       <c r="F7">
-        <v>5.229949476276971</v>
+        <v>1.370936707135115</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -650,30 +686,36 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1116250615911873</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5192637916834286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.5327793338232993</v>
+      </c>
+      <c r="O7">
+        <v>1.064663950185761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.520880151612005</v>
+        <v>3.969785973086516</v>
       </c>
       <c r="C8">
-        <v>0.4992915671215314</v>
+        <v>1.13556067561052</v>
       </c>
       <c r="D8">
-        <v>0.3293531318493308</v>
+        <v>0.006270349662804264</v>
       </c>
       <c r="E8">
-        <v>0.06012052959455616</v>
+        <v>1.404731252173079</v>
       </c>
       <c r="F8">
-        <v>6.242890108342863</v>
+        <v>1.637907810922727</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -691,30 +733,36 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1357396873225056</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6384121334845787</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.4706588852438252</v>
+      </c>
+      <c r="O8">
+        <v>1.267637353615115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.527490245536683</v>
+        <v>5.466665360560114</v>
       </c>
       <c r="C9">
-        <v>0.700665445095126</v>
+        <v>1.558475889056751</v>
       </c>
       <c r="D9">
-        <v>0.4302701813082734</v>
+        <v>0.005574184506832225</v>
       </c>
       <c r="E9">
-        <v>0.07613784149336666</v>
+        <v>1.984568936781926</v>
       </c>
       <c r="F9">
-        <v>8.360735611015485</v>
+        <v>2.21074845730918</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -732,30 +780,36 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1862749163109925</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8882176071058439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.3627897177413359</v>
+      </c>
+      <c r="O9">
+        <v>1.706306440549653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.328988805986171</v>
+        <v>6.623996376269531</v>
       </c>
       <c r="C10">
-        <v>0.8619626743606261</v>
+        <v>1.885824407591485</v>
       </c>
       <c r="D10">
-        <v>0.5105813036811924</v>
+        <v>0.005885804638266379</v>
       </c>
       <c r="E10">
-        <v>0.08887196005594333</v>
+        <v>2.452202727790961</v>
       </c>
       <c r="F10">
-        <v>10.04087912747192</v>
+        <v>2.675515437623375</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -773,30 +827,36 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.226414907175311</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.086900194153408</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.2941674907016072</v>
+      </c>
+      <c r="O10">
+        <v>2.064756891067873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.713339280964078</v>
+        <v>7.168828228471682</v>
       </c>
       <c r="C11">
-        <v>0.9397237905677684</v>
+        <v>2.040149523059767</v>
       </c>
       <c r="D11">
-        <v>0.5491006490236146</v>
+        <v>0.006285180149294689</v>
       </c>
       <c r="E11">
-        <v>0.09496695324250126</v>
+        <v>2.678597670636734</v>
       </c>
       <c r="F11">
-        <v>10.84461542853154</v>
+        <v>2.900318548647107</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -814,30 +874,36 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2456210216205292</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.182081497023411</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.2658461087992379</v>
+      </c>
+      <c r="O11">
+        <v>2.238840944649709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.86238782699786</v>
+        <v>7.378383558895393</v>
       </c>
       <c r="C12">
-        <v>0.9699598418579285</v>
+        <v>2.099553897932935</v>
       </c>
       <c r="D12">
-        <v>0.5640404023050678</v>
+        <v>0.00648205014375236</v>
       </c>
       <c r="E12">
-        <v>0.09732806722298193</v>
+        <v>2.766792105237911</v>
       </c>
       <c r="F12">
-        <v>11.15594829219685</v>
+        <v>2.987766413037804</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -855,30 +921,36 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2530605713402849</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.218973463040385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.2555990086145599</v>
+      </c>
+      <c r="O12">
+        <v>2.306675390309891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.830119569044996</v>
+        <v>7.333097150147921</v>
       </c>
       <c r="C13">
-        <v>0.9634099204837412</v>
+        <v>2.086713802543159</v>
       </c>
       <c r="D13">
-        <v>0.5608059057345827</v>
+        <v>0.006437461743487916</v>
       </c>
       <c r="E13">
-        <v>0.09681702344794729</v>
+        <v>2.747679052924212</v>
       </c>
       <c r="F13">
-        <v>11.08856311970391</v>
+        <v>2.968822613358384</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -896,30 +968,36 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2514503637981278</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.210987460396353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.2577835582783123</v>
+      </c>
+      <c r="O13">
+        <v>2.291975035060815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.725527050944208</v>
+        <v>7.185999686822811</v>
       </c>
       <c r="C14">
-        <v>0.9421944623396996</v>
+        <v>2.045016213622432</v>
       </c>
       <c r="D14">
-        <v>0.5503222294634895</v>
+        <v>0.006300405547065679</v>
       </c>
       <c r="E14">
-        <v>0.09516007749165567</v>
+        <v>2.685800823613604</v>
       </c>
       <c r="F14">
-        <v>10.87008069040871</v>
+        <v>2.907463893456253</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -937,30 +1015,36 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.246229540368887</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.185098575363831</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.2649931081722805</v>
+      </c>
+      <c r="O14">
+        <v>2.244381282135862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.661939560406665</v>
+        <v>7.09633993023175</v>
       </c>
       <c r="C15">
-        <v>0.9293075491227967</v>
+        <v>2.019607074711928</v>
       </c>
       <c r="D15">
-        <v>0.5439489490412939</v>
+        <v>0.006222687754812384</v>
       </c>
       <c r="E15">
-        <v>0.09415238176778828</v>
+        <v>2.648236267776426</v>
       </c>
       <c r="F15">
-        <v>10.7372058007515</v>
+        <v>2.870195107110618</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -978,30 +1062,36 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2430543502782143</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.169356732291611</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.269473384143776</v>
+      </c>
+      <c r="O15">
+        <v>2.215488648804097</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.304321476649591</v>
+        <v>6.588808359675738</v>
       </c>
       <c r="C16">
-        <v>0.8569818464847287</v>
+        <v>1.875862908198087</v>
       </c>
       <c r="D16">
-        <v>0.508109401760521</v>
+        <v>0.005865577734248006</v>
       </c>
       <c r="E16">
-        <v>0.08848049655862056</v>
+        <v>2.437722297118441</v>
       </c>
       <c r="F16">
-        <v>9.989251969509922</v>
+        <v>2.661125358570871</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1019,30 +1109,36 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.22518125159921</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.080789262364085</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.2960815934812047</v>
+      </c>
+      <c r="O16">
+        <v>2.053628455866132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.090420925558419</v>
+        <v>6.282547168957933</v>
       </c>
       <c r="C17">
-        <v>0.8138381029616539</v>
+        <v>1.789188116023524</v>
       </c>
       <c r="D17">
-        <v>0.486675455289344</v>
+        <v>0.005717992512765946</v>
       </c>
       <c r="E17">
-        <v>0.08508462328578048</v>
+        <v>2.312398883806395</v>
       </c>
       <c r="F17">
-        <v>9.54135206294697</v>
+        <v>2.536552888431203</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1060,30 +1156,36 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2144788552233905</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.027788040046794</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.3131864598096534</v>
+      </c>
+      <c r="O17">
+        <v>1.957369381208039</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.969202396777462</v>
+        <v>6.108079673361317</v>
       </c>
       <c r="C18">
-        <v>0.7894244894587246</v>
+        <v>1.739831424661418</v>
       </c>
       <c r="D18">
-        <v>0.4745293017965366</v>
+        <v>0.00565673749520279</v>
       </c>
       <c r="E18">
-        <v>0.08315917218670776</v>
+        <v>2.241566797576027</v>
       </c>
       <c r="F18">
-        <v>9.287351146729861</v>
+        <v>2.466133641415311</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1101,30 +1203,36 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2084100294486362</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9977436747072232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.3232929636351756</v>
+      </c>
+      <c r="O18">
+        <v>1.903018337732405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.928453006144082</v>
+        <v>6.049281080856929</v>
       </c>
       <c r="C19">
-        <v>0.7812231397747382</v>
+        <v>1.723200258066356</v>
       </c>
       <c r="D19">
-        <v>0.470446254468186</v>
+        <v>0.00563982617048886</v>
       </c>
       <c r="E19">
-        <v>0.08251175415840706</v>
+        <v>2.217785690156973</v>
       </c>
       <c r="F19">
-        <v>9.201936929559764</v>
+        <v>2.442491556061114</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1142,30 +1250,36 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2063693251833598</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9876425249780922</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.3267592394040832</v>
+      </c>
+      <c r="O19">
+        <v>1.884781303635947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.112999168520901</v>
+        <v>6.314970739043929</v>
       </c>
       <c r="C20">
-        <v>0.8183882325973286</v>
+        <v>1.798362192336526</v>
       </c>
       <c r="D20">
-        <v>0.488937843974071</v>
+        <v>0.005731201457047419</v>
       </c>
       <c r="E20">
-        <v>0.08544318269708384</v>
+        <v>2.325607092248376</v>
       </c>
       <c r="F20">
-        <v>9.588648594973563</v>
+        <v>2.549683753419856</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1183,30 +1297,36 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2156089474658103</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.033383473111584</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.311337449003446</v>
+      </c>
+      <c r="O20">
+        <v>1.967509143173189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.756147301022224</v>
+        <v>7.22911248575673</v>
       </c>
       <c r="C21">
-        <v>0.9484030775038832</v>
+        <v>2.057235941951319</v>
       </c>
       <c r="D21">
-        <v>0.553391336560594</v>
+        <v>0.006339344949562786</v>
       </c>
       <c r="E21">
-        <v>0.09564523551416571</v>
+        <v>2.703904530317899</v>
       </c>
       <c r="F21">
-        <v>10.93405315992732</v>
+        <v>2.925419927397513</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1224,30 +1344,36 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2477582249395738</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.192678292312621</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.2628619787474342</v>
+      </c>
+      <c r="O21">
+        <v>2.258305874599117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.197325574135732</v>
+        <v>7.845809790728993</v>
       </c>
       <c r="C22">
-        <v>1.03808027243042</v>
+        <v>2.232165329322129</v>
       </c>
       <c r="D22">
-        <v>0.5976177927947788</v>
+        <v>0.007008412670543862</v>
       </c>
       <c r="E22">
-        <v>0.1026282646343439</v>
+        <v>2.965828734691826</v>
       </c>
       <c r="F22">
-        <v>11.85483635671642</v>
+        <v>3.184752150783993</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1265,30 +1391,36 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.269760056611311</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.301835350174159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.2340019856565867</v>
+      </c>
+      <c r="O22">
+        <v>2.459709781907563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.959693007103283</v>
+        <v>7.514674012367664</v>
       </c>
       <c r="C23">
-        <v>0.9897246760809537</v>
+        <v>2.138204638583716</v>
       </c>
       <c r="D23">
-        <v>0.573794450944888</v>
+        <v>0.006623052885942116</v>
       </c>
       <c r="E23">
-        <v>0.09886869144208887</v>
+        <v>2.824493303966648</v>
       </c>
       <c r="F23">
-        <v>11.35909216669302</v>
+        <v>3.044929335600386</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1306,30 +1438,36 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2579147411932112</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.243052175381848</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.24912338888441</v>
+      </c>
+      <c r="O23">
+        <v>2.351051654827529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.102786124251509</v>
+        <v>6.300307083910297</v>
       </c>
       <c r="C24">
-        <v>0.8163299147865644</v>
+        <v>1.794213130206515</v>
       </c>
       <c r="D24">
-        <v>0.4879144731871179</v>
+        <v>0.005725156824356148</v>
       </c>
       <c r="E24">
-        <v>0.08528099495561392</v>
+        <v>2.319631903357802</v>
       </c>
       <c r="F24">
-        <v>9.567255017433439</v>
+        <v>2.543743583192906</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1347,30 +1485,36 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2150977729516796</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.030852460122873</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.3121725418916697</v>
+      </c>
+      <c r="O24">
+        <v>1.962921898305837</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.246122881856422</v>
+        <v>5.053330263672592</v>
       </c>
       <c r="C25">
-        <v>0.6442730670833043</v>
+        <v>1.441671722288504</v>
       </c>
       <c r="D25">
-        <v>0.4020744917389862</v>
+        <v>0.005640553482477273</v>
       </c>
       <c r="E25">
-        <v>0.07166205259411029</v>
+        <v>1.821724004333646</v>
       </c>
       <c r="F25">
-        <v>7.769630446301647</v>
+        <v>2.049202808505243</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1388,10 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1721600884227179</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.818416674113621</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.3902786012828265</v>
+      </c>
+      <c r="O25">
+        <v>1.582217428293646</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_34/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.171712637345081</v>
+        <v>1.068369369166561</v>
       </c>
       <c r="C2">
-        <v>1.192608770921197</v>
+        <v>0.08559322712467576</v>
       </c>
       <c r="D2">
-        <v>0.006101783662264992</v>
+        <v>0.08990893150767931</v>
       </c>
       <c r="E2">
-        <v>1.481376300786124</v>
+        <v>0.05386406375138897</v>
       </c>
       <c r="F2">
-        <v>1.713139133834304</v>
+        <v>0.7916560312452248</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4541223333204201</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.05617735783309286</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9316584616861121</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2159778319163337</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.4547035789328291</v>
+        <v>0.9678350383697403</v>
       </c>
       <c r="O2">
-        <v>1.325020494883788</v>
+        <v>1.993270086649432</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.590109738456079</v>
+        <v>0.9327972576623438</v>
       </c>
       <c r="C3">
-        <v>1.028272904381367</v>
+        <v>0.07907486567560085</v>
       </c>
       <c r="D3">
-        <v>0.006653268653481703</v>
+        <v>0.08112524898033513</v>
       </c>
       <c r="E3">
-        <v>1.261914543025185</v>
+        <v>0.05172506495367912</v>
       </c>
       <c r="F3">
-        <v>1.498352446121814</v>
+        <v>0.7762518741914448</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4577897765626879</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.05662927033266207</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8100747100972399</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1955534042953886</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5019837164758982</v>
+        <v>1.009158230953648</v>
       </c>
       <c r="O3">
-        <v>1.161400211066947</v>
+        <v>1.978196087555062</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.238941784710448</v>
+        <v>0.8498278981170131</v>
       </c>
       <c r="C4">
-        <v>0.9289971460108291</v>
+        <v>0.07506126979104266</v>
       </c>
       <c r="D4">
-        <v>0.007086755358056251</v>
+        <v>0.07578239177438206</v>
       </c>
       <c r="E4">
-        <v>1.131315581673022</v>
+        <v>0.05046249699159411</v>
       </c>
       <c r="F4">
-        <v>1.371622307380406</v>
+        <v>0.7679644980671227</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4607426740469656</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.05696646217351997</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7355540401742644</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.183170677391054</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5326074581553186</v>
+        <v>1.035586501280525</v>
       </c>
       <c r="O4">
-        <v>1.065183755290306</v>
+        <v>1.972125875467867</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.097084377492024</v>
+        <v>0.8160757379949644</v>
       </c>
       <c r="C5">
-        <v>0.888876490616525</v>
+        <v>0.07342235690485666</v>
       </c>
       <c r="D5">
-        <v>0.007284327401823276</v>
+        <v>0.07361710679010969</v>
       </c>
       <c r="E5">
-        <v>1.078963861025002</v>
+        <v>0.04996038109019274</v>
       </c>
       <c r="F5">
-        <v>1.321110368918838</v>
+        <v>0.7648714180411247</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4621170701976425</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.05711858808644443</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7052107061142578</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1781620072489218</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5454622226444812</v>
+        <v>1.046616684470074</v>
       </c>
       <c r="O5">
-        <v>1.026908747119663</v>
+        <v>1.970425556495499</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.07359761980382</v>
+        <v>0.8104744704632196</v>
       </c>
       <c r="C6">
-        <v>0.882232708926324</v>
+        <v>0.0731500009095214</v>
       </c>
       <c r="D6">
-        <v>0.007318319326079958</v>
+        <v>0.07325826642215105</v>
       </c>
       <c r="E6">
-        <v>1.070318631377205</v>
+        <v>0.04987774270732181</v>
       </c>
       <c r="F6">
-        <v>1.312786797694471</v>
+        <v>0.7643746795084922</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4623554710326161</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.05714472888380051</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7001734463514993</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.177332513786574</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5476187252889737</v>
+        <v>1.048463826159853</v>
       </c>
       <c r="O6">
-        <v>1.020605973684084</v>
+        <v>1.970189142710609</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.237023906761181</v>
+        <v>0.8493724805311729</v>
       </c>
       <c r="C7">
-        <v>0.9284548003269038</v>
+        <v>0.07503918100136531</v>
       </c>
       <c r="D7">
-        <v>0.007089338762749975</v>
+        <v>0.0757531423960458</v>
       </c>
       <c r="E7">
-        <v>1.130606247840944</v>
+        <v>0.0504556756010075</v>
       </c>
       <c r="F7">
-        <v>1.370936707135115</v>
+        <v>0.767921646744135</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4607605237334376</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.05696845459142352</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7351447316963515</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.183102980313528</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5327793338232993</v>
+        <v>1.035734210092427</v>
       </c>
       <c r="O7">
-        <v>1.064663950185761</v>
+        <v>1.972099848765453</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.969785973086516</v>
+        <v>1.021561344803587</v>
       </c>
       <c r="C8">
-        <v>1.13556067561052</v>
+        <v>0.08334772867201679</v>
       </c>
       <c r="D8">
-        <v>0.006270349662804264</v>
+        <v>0.08686943741920317</v>
       </c>
       <c r="E8">
-        <v>1.404731252173079</v>
+        <v>0.05311576201246027</v>
       </c>
       <c r="F8">
-        <v>1.637907810922727</v>
+        <v>0.7860953125180501</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.4552381472700162</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.05632059972926129</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8897034549167699</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.208901265302373</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.4706588852438252</v>
+        <v>0.9818610997014892</v>
       </c>
       <c r="O8">
-        <v>1.267637353615115</v>
+        <v>1.987394457512721</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.466665360560114</v>
+        <v>1.361877383746446</v>
       </c>
       <c r="C9">
-        <v>1.558475889056751</v>
+        <v>0.09957593394738495</v>
       </c>
       <c r="D9">
-        <v>0.005574184506832225</v>
+        <v>0.1091018652515459</v>
       </c>
       <c r="E9">
-        <v>1.984568936781926</v>
+        <v>0.05875338555249243</v>
       </c>
       <c r="F9">
-        <v>2.21074845730918</v>
+        <v>0.8315142386758225</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.450218192460742</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.05553807393661003</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.194276802462127</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2608578014918805</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.3627897177413359</v>
+        <v>0.8848254156313731</v>
       </c>
       <c r="O9">
-        <v>1.706306440549653</v>
+        <v>2.043970666469619</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.623996376269531</v>
+        <v>1.614272672203214</v>
       </c>
       <c r="C10">
-        <v>1.885824407591485</v>
+        <v>0.1114972077145922</v>
       </c>
       <c r="D10">
-        <v>0.005885804638266379</v>
+        <v>0.1257512329450492</v>
       </c>
       <c r="E10">
-        <v>2.452202727790961</v>
+        <v>0.06317913438686418</v>
       </c>
       <c r="F10">
-        <v>2.675515437623375</v>
+        <v>0.8715653338447495</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.4504316303819706</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0552811633532535</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.419612331226261</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3000319264067031</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.2941674907016072</v>
+        <v>0.8191172132968934</v>
       </c>
       <c r="O10">
-        <v>2.064756891067873</v>
+        <v>2.103662035253421</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.168828228471682</v>
+        <v>1.729785105657697</v>
       </c>
       <c r="C11">
-        <v>2.040149523059767</v>
+        <v>0.116929328206794</v>
       </c>
       <c r="D11">
-        <v>0.006285180149294689</v>
+        <v>0.133405924576607</v>
       </c>
       <c r="E11">
-        <v>2.678597670636734</v>
+        <v>0.06526047565301241</v>
       </c>
       <c r="F11">
-        <v>2.900318548647107</v>
+        <v>0.8914054614201348</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.4514603492858171</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.05523815284418276</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.522620710800851</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3181106149066295</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.2658461087992379</v>
+        <v>0.7905159692991806</v>
       </c>
       <c r="O11">
-        <v>2.238840944649709</v>
+        <v>2.135203894576563</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.378383558895393</v>
+        <v>1.773642112130801</v>
       </c>
       <c r="C12">
-        <v>2.099553897932935</v>
+        <v>0.1189884402561034</v>
       </c>
       <c r="D12">
-        <v>0.00648205014375236</v>
+        <v>0.1363172029510622</v>
       </c>
       <c r="E12">
-        <v>2.766792105237911</v>
+        <v>0.06605895902249515</v>
       </c>
       <c r="F12">
-        <v>2.987766413037804</v>
+        <v>0.8991663581331863</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.4519913521651588</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.05523291213157577</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.561713080988454</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3249971239777523</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.2555990086145599</v>
+        <v>0.7798780105368435</v>
       </c>
       <c r="O12">
-        <v>2.306675390309891</v>
+        <v>2.147818914160979</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.333097150147921</v>
+        <v>1.764191362195533</v>
       </c>
       <c r="C13">
-        <v>2.086713802543159</v>
+        <v>0.1185448677571799</v>
       </c>
       <c r="D13">
-        <v>0.006437461743487916</v>
+        <v>0.1356896296583301</v>
       </c>
       <c r="E13">
-        <v>2.747679052924212</v>
+        <v>0.06588652322054145</v>
       </c>
       <c r="F13">
-        <v>2.968822613358384</v>
+        <v>0.8974836403164232</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.4518705761776758</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.05523354247692325</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.553289825675989</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3235121336380047</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.2577835582783123</v>
+        <v>0.7821603943547348</v>
       </c>
       <c r="O13">
-        <v>2.291975035060815</v>
+        <v>2.145071549246438</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.185999686822811</v>
+        <v>1.733390855822392</v>
       </c>
       <c r="C14">
-        <v>2.045016213622432</v>
+        <v>0.1170986860936551</v>
       </c>
       <c r="D14">
-        <v>0.006300405547065679</v>
+        <v>0.1336451785223147</v>
       </c>
       <c r="E14">
-        <v>2.685800823613604</v>
+        <v>0.06532595723601631</v>
       </c>
       <c r="F14">
-        <v>2.907463893456253</v>
+        <v>0.8920388992330999</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.4515011558759241</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.05523749777441367</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.525835075007791</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3186763403287642</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.2649931081722805</v>
+        <v>0.7896368727450387</v>
       </c>
       <c r="O14">
-        <v>2.244381282135862</v>
+        <v>2.136228059033755</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.09633993023175</v>
+        <v>1.714540082852011</v>
       </c>
       <c r="C15">
-        <v>2.019607074711928</v>
+        <v>0.1162131539558828</v>
       </c>
       <c r="D15">
-        <v>0.006222687754812384</v>
+        <v>0.1323945662055763</v>
       </c>
       <c r="E15">
-        <v>2.648236267776426</v>
+        <v>0.06498395550810443</v>
       </c>
       <c r="F15">
-        <v>2.870195107110618</v>
+        <v>0.8887365735419905</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.4512935259790041</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.05524137213397751</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.509029765343911</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3157196557092448</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.269473384143776</v>
+        <v>0.7942417508616444</v>
       </c>
       <c r="O15">
-        <v>2.215488648804097</v>
+        <v>2.130899748205223</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.588808359675738</v>
+        <v>1.606738921374358</v>
       </c>
       <c r="C16">
-        <v>1.875862908198087</v>
+        <v>0.1111424538262753</v>
       </c>
       <c r="D16">
-        <v>0.005865577734248006</v>
+        <v>0.1252526904268194</v>
       </c>
       <c r="E16">
-        <v>2.437722297118441</v>
+        <v>0.06304452852086939</v>
       </c>
       <c r="F16">
-        <v>2.661125358570871</v>
+        <v>0.8703025934333866</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.4503837773095114</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.05528549624807155</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.412891697159324</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2988559206323487</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.2960815934812047</v>
+        <v>0.8210129346752382</v>
       </c>
       <c r="O16">
-        <v>2.053628455866132</v>
+        <v>2.101692345627953</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.282547168957933</v>
+        <v>1.540795019657224</v>
       </c>
       <c r="C17">
-        <v>1.789188116023524</v>
+        <v>0.1080346041118787</v>
       </c>
       <c r="D17">
-        <v>0.005717992512765946</v>
+        <v>0.1208927658449142</v>
       </c>
       <c r="E17">
-        <v>2.312398883806395</v>
+        <v>0.0618725552942152</v>
       </c>
       <c r="F17">
-        <v>2.536552888431203</v>
+        <v>0.8594193024569563</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.4500694715039408</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.05533177721859772</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.354051771942522</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2885790277126148</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3131864598096534</v>
+        <v>0.8377715469770921</v>
       </c>
       <c r="O17">
-        <v>1.957369381208039</v>
+        <v>2.084925978180451</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.108079673361317</v>
+        <v>1.502930451129288</v>
       </c>
       <c r="C18">
-        <v>1.739831424661418</v>
+        <v>0.1062478548570454</v>
       </c>
       <c r="D18">
-        <v>0.00565673749520279</v>
+        <v>0.1183925959353473</v>
       </c>
       <c r="E18">
-        <v>2.241566797576027</v>
+        <v>0.06120483797170451</v>
       </c>
       <c r="F18">
-        <v>2.466133641415311</v>
+        <v>0.8533111285966015</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.4499759061741209</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.05536532190602728</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.320255026795564</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2826921176652917</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3232929636351756</v>
+        <v>0.8475315959063927</v>
       </c>
       <c r="O18">
-        <v>1.903018337732405</v>
+        <v>2.07569289691142</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.049281080856929</v>
+        <v>1.490120822600971</v>
       </c>
       <c r="C19">
-        <v>1.723200258066356</v>
+        <v>0.1056430074843888</v>
       </c>
       <c r="D19">
-        <v>0.00563982617048886</v>
+        <v>0.1175473476824891</v>
       </c>
       <c r="E19">
-        <v>2.217785690156973</v>
+        <v>0.06097983859166689</v>
       </c>
       <c r="F19">
-        <v>2.442491556061114</v>
+        <v>0.8512686076021296</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.449958985088081</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.05537785638489723</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.308819617363667</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2807029486075407</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.3267592394040832</v>
+        <v>0.850856738146712</v>
       </c>
       <c r="O19">
-        <v>1.884781303635947</v>
+        <v>2.072636062604772</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.314970739043929</v>
+        <v>1.547808068678279</v>
       </c>
       <c r="C20">
-        <v>1.798362192336526</v>
+        <v>0.1083653513758236</v>
       </c>
       <c r="D20">
-        <v>0.005731201457047419</v>
+        <v>0.1213560995491463</v>
       </c>
       <c r="E20">
-        <v>2.325607092248376</v>
+        <v>0.06199665069384253</v>
       </c>
       <c r="F20">
-        <v>2.549683753419856</v>
+        <v>0.8605620521039512</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.4500938506903651</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.05532613080490023</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.360310485508734</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.289670503821938</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.311337449003446</v>
+        <v>0.8359749962881127</v>
       </c>
       <c r="O20">
-        <v>1.967509143173189</v>
+        <v>2.086668021831485</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.22911248575673</v>
+        <v>1.742434468468446</v>
       </c>
       <c r="C21">
-        <v>2.057235941951319</v>
+        <v>0.1175234015585005</v>
       </c>
       <c r="D21">
-        <v>0.006339344949562786</v>
+        <v>0.1342453328630171</v>
       </c>
       <c r="E21">
-        <v>2.703904530317899</v>
+        <v>0.06549032438913116</v>
       </c>
       <c r="F21">
-        <v>2.925419927397513</v>
+        <v>0.8936313018996742</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.4516057627858956</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.05523603269543997</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.533896775764106</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3200956028592685</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.2628619787474342</v>
+        <v>0.7874355597608522</v>
       </c>
       <c r="O21">
-        <v>2.258305874599117</v>
+        <v>2.138807071433376</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.845809790728993</v>
+        <v>1.870311709973606</v>
       </c>
       <c r="C22">
-        <v>2.232165329322129</v>
+        <v>0.1235212831186203</v>
       </c>
       <c r="D22">
-        <v>0.007008412670543862</v>
+        <v>0.1427432134153861</v>
       </c>
       <c r="E22">
-        <v>2.965828734691826</v>
+        <v>0.06783409529954199</v>
       </c>
       <c r="F22">
-        <v>3.184752150783993</v>
+        <v>0.9166962929093501</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.4534221645940875</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.05524175110803498</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.647849587548308</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3402179644535153</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.2340019856565867</v>
+        <v>0.7568391819821967</v>
       </c>
       <c r="O22">
-        <v>2.459709781907563</v>
+        <v>2.176813195415974</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.514674012367664</v>
+        <v>1.801994064552446</v>
       </c>
       <c r="C23">
-        <v>2.138204638583716</v>
+        <v>0.1203186764649899</v>
       </c>
       <c r="D23">
-        <v>0.006623052885942116</v>
+        <v>0.1382006178562847</v>
       </c>
       <c r="E23">
-        <v>2.824493303966648</v>
+        <v>0.06657746252648877</v>
       </c>
       <c r="F23">
-        <v>3.044929335600386</v>
+        <v>0.904248048359932</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.4523743366105393</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.05523264074852108</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.586980121823956</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3294553505156301</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.24912338888441</v>
+        <v>0.7730634196894739</v>
       </c>
       <c r="O23">
-        <v>2.351051654827529</v>
+        <v>2.156155181863653</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.300307083910297</v>
+        <v>1.54463732249809</v>
       </c>
       <c r="C24">
-        <v>1.794213130206515</v>
+        <v>0.108215820612017</v>
       </c>
       <c r="D24">
-        <v>0.005725156824356148</v>
+        <v>0.1211466064938662</v>
       </c>
       <c r="E24">
-        <v>2.319631903357802</v>
+        <v>0.06194052831082075</v>
       </c>
       <c r="F24">
-        <v>2.543743583192906</v>
+        <v>0.8600449526973861</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.45008255802016</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.05532866197274799</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.357480825181227</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2891769810301383</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3121725418916697</v>
+        <v>0.8367868271180194</v>
       </c>
       <c r="O24">
-        <v>1.962921898305837</v>
+        <v>2.085879181885218</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.053330263672592</v>
+        <v>1.269454332014504</v>
       </c>
       <c r="C25">
-        <v>1.441671722288504</v>
+        <v>0.09518896177935687</v>
       </c>
       <c r="D25">
-        <v>0.005640553482477273</v>
+        <v>0.1030359090768371</v>
       </c>
       <c r="E25">
-        <v>1.821724004333646</v>
+        <v>0.05718046396277821</v>
       </c>
       <c r="F25">
-        <v>2.049202808505243</v>
+        <v>0.8181083006248215</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.4509183209480732</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.05569547684426368</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.111657000952391</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2466390764719364</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.3902786012828265</v>
+        <v>0.9101209973046211</v>
       </c>
       <c r="O25">
-        <v>1.582217428293646</v>
+        <v>2.025627817655703</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_34/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.068369369166561</v>
+        <v>0.7175764140682759</v>
       </c>
       <c r="C2">
-        <v>0.08559322712467576</v>
+        <v>0.06260135146008849</v>
       </c>
       <c r="D2">
-        <v>0.08990893150767931</v>
+        <v>0.1265557049407491</v>
       </c>
       <c r="E2">
-        <v>0.05386406375138897</v>
+        <v>0.1215562336815807</v>
       </c>
       <c r="F2">
-        <v>0.7916560312452248</v>
+        <v>1.730212186002525</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4541223333204201</v>
+        <v>1.091659938521605</v>
       </c>
       <c r="J2">
-        <v>0.05617735783309286</v>
+        <v>0.1506897988592826</v>
       </c>
       <c r="K2">
-        <v>0.9316584616861121</v>
+        <v>0.442376835111105</v>
       </c>
       <c r="L2">
-        <v>0.2159778319163337</v>
+        <v>0.3010045715382859</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9678350383697403</v>
+        <v>2.031795384352552</v>
       </c>
       <c r="O2">
-        <v>1.993270086649432</v>
+        <v>4.502243148714626</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9327972576623438</v>
+        <v>0.680771382272269</v>
       </c>
       <c r="C3">
-        <v>0.07907486567560085</v>
+        <v>0.0603773326943724</v>
       </c>
       <c r="D3">
-        <v>0.08112524898033513</v>
+        <v>0.1246814889621248</v>
       </c>
       <c r="E3">
-        <v>0.05172506495367912</v>
+        <v>0.1215706998981005</v>
       </c>
       <c r="F3">
-        <v>0.7762518741914448</v>
+        <v>1.736667472839201</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4577897765626879</v>
+        <v>1.099026108219643</v>
       </c>
       <c r="J3">
-        <v>0.05662927033266207</v>
+        <v>0.1515007563693196</v>
       </c>
       <c r="K3">
-        <v>0.8100747100972399</v>
+        <v>0.4075864759762453</v>
       </c>
       <c r="L3">
-        <v>0.1955534042953886</v>
+        <v>0.296888353869754</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.009158230953648</v>
+        <v>2.050031960776172</v>
       </c>
       <c r="O3">
-        <v>1.978196087555062</v>
+        <v>4.526135960436591</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8498278981170131</v>
+        <v>0.6583985860095254</v>
       </c>
       <c r="C4">
-        <v>0.07506126979104266</v>
+        <v>0.05899572011686871</v>
       </c>
       <c r="D4">
-        <v>0.07578239177438206</v>
+        <v>0.1235750177935913</v>
       </c>
       <c r="E4">
-        <v>0.05046249699159411</v>
+        <v>0.1216189954940319</v>
       </c>
       <c r="F4">
-        <v>0.7679644980671227</v>
+        <v>1.741356316376994</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4607426740469656</v>
+        <v>1.103977940612751</v>
       </c>
       <c r="J4">
-        <v>0.05696646217351997</v>
+        <v>0.1520419333065863</v>
       </c>
       <c r="K4">
-        <v>0.7355540401742644</v>
+        <v>0.386321024341413</v>
       </c>
       <c r="L4">
-        <v>0.183170677391054</v>
+        <v>0.2944776136466842</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.035586501280525</v>
+        <v>2.061805402870696</v>
       </c>
       <c r="O4">
-        <v>1.972125875467867</v>
+        <v>4.54271532295482</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8160757379949644</v>
+        <v>0.6493390029859256</v>
       </c>
       <c r="C5">
-        <v>0.07342235690485666</v>
+        <v>0.05842868181383665</v>
       </c>
       <c r="D5">
-        <v>0.07361710679010969</v>
+        <v>0.1231353322108646</v>
       </c>
       <c r="E5">
-        <v>0.04996038109019274</v>
+        <v>0.1216486175234266</v>
       </c>
       <c r="F5">
-        <v>0.7648714180411247</v>
+        <v>1.743449680609771</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4621170701976425</v>
+        <v>1.10610382385719</v>
       </c>
       <c r="J5">
-        <v>0.05711858808644443</v>
+        <v>0.1522733612966842</v>
       </c>
       <c r="K5">
-        <v>0.7052107061142578</v>
+        <v>0.3776799283747891</v>
       </c>
       <c r="L5">
-        <v>0.1781620072489218</v>
+        <v>0.2935246841258845</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.046616684470074</v>
+        <v>2.066748110782149</v>
       </c>
       <c r="O5">
-        <v>1.970425556495499</v>
+        <v>4.549952074521983</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8104744704632196</v>
+        <v>0.6478381625347254</v>
       </c>
       <c r="C6">
-        <v>0.0731500009095214</v>
+        <v>0.05833428325504286</v>
       </c>
       <c r="D6">
-        <v>0.07325826642215105</v>
+        <v>0.1230630018806949</v>
       </c>
       <c r="E6">
-        <v>0.04987774270732181</v>
+        <v>0.1216541375553106</v>
       </c>
       <c r="F6">
-        <v>0.7643746795084922</v>
+        <v>1.743808319357782</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4623554710326161</v>
+        <v>1.106463349363707</v>
       </c>
       <c r="J6">
-        <v>0.05714472888380051</v>
+        <v>0.1523124482826823</v>
       </c>
       <c r="K6">
-        <v>0.7001734463514993</v>
+        <v>0.3762465938263944</v>
       </c>
       <c r="L6">
-        <v>0.177332513786574</v>
+        <v>0.2933682346817932</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.048463826159853</v>
+        <v>2.06757759936855</v>
       </c>
       <c r="O6">
-        <v>1.970189142710609</v>
+        <v>4.551182768170293</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8493724805311729</v>
+        <v>0.658276171410705</v>
       </c>
       <c r="C7">
-        <v>0.07503918100136531</v>
+        <v>0.05898808909299191</v>
       </c>
       <c r="D7">
-        <v>0.0757531423960458</v>
+        <v>0.1235690425567029</v>
       </c>
       <c r="E7">
-        <v>0.0504556756010075</v>
+        <v>0.1216193546950173</v>
       </c>
       <c r="F7">
-        <v>0.767921646744135</v>
+        <v>1.741383808459915</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4607605237334376</v>
+        <v>1.104006173710069</v>
       </c>
       <c r="J7">
-        <v>0.05696845459142352</v>
+        <v>0.1520450102900242</v>
       </c>
       <c r="K7">
-        <v>0.7351447316963515</v>
+        <v>0.3862043864783686</v>
       </c>
       <c r="L7">
-        <v>0.183102980313528</v>
+        <v>0.2944646426122617</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.035734210092427</v>
+        <v>2.061871475033595</v>
       </c>
       <c r="O7">
-        <v>1.972099848765453</v>
+        <v>4.542810974055385</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.021561344803587</v>
+        <v>0.7048396587177592</v>
       </c>
       <c r="C8">
-        <v>0.08334772867201679</v>
+        <v>0.06183785212275694</v>
       </c>
       <c r="D8">
-        <v>0.08686943741920317</v>
+        <v>0.125900320674603</v>
       </c>
       <c r="E8">
-        <v>0.05311576201246027</v>
+        <v>0.1215530594235261</v>
       </c>
       <c r="F8">
-        <v>0.7860953125180501</v>
+        <v>1.732287585112459</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4552381472700162</v>
+        <v>1.094110821374876</v>
       </c>
       <c r="J8">
-        <v>0.05632059972926129</v>
+        <v>0.1509604530448243</v>
       </c>
       <c r="K8">
-        <v>0.8897034549167699</v>
+        <v>0.4303615592287429</v>
       </c>
       <c r="L8">
-        <v>0.208901265302373</v>
+        <v>0.2995611732831662</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9818610997014892</v>
+        <v>2.03796382606891</v>
       </c>
       <c r="O8">
-        <v>1.987394457512721</v>
+        <v>4.510085441440353</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.361877383746446</v>
+        <v>0.7979118093734314</v>
       </c>
       <c r="C9">
-        <v>0.09957593394738495</v>
+        <v>0.06729829495397155</v>
       </c>
       <c r="D9">
-        <v>0.1091018652515459</v>
+        <v>0.1308207564177053</v>
       </c>
       <c r="E9">
-        <v>0.05875338555249243</v>
+        <v>0.1217345333303683</v>
       </c>
       <c r="F9">
-        <v>0.8315142386758225</v>
+        <v>1.720194683037604</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.450218192460742</v>
+        <v>1.078105420177238</v>
       </c>
       <c r="J9">
-        <v>0.05553807393661003</v>
+        <v>0.1491759215874673</v>
       </c>
       <c r="K9">
-        <v>1.194276802462127</v>
+        <v>0.5176924347111651</v>
       </c>
       <c r="L9">
-        <v>0.2608578014918805</v>
+        <v>0.3104755802110475</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8848254156313731</v>
+        <v>1.995648494263387</v>
       </c>
       <c r="O9">
-        <v>2.043970666469619</v>
+        <v>4.461039308230681</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.614272672203214</v>
+        <v>0.8673338054271085</v>
       </c>
       <c r="C10">
-        <v>0.1114972077145922</v>
+        <v>0.07123171116337801</v>
       </c>
       <c r="D10">
-        <v>0.1257512329450492</v>
+        <v>0.1346452404174556</v>
       </c>
       <c r="E10">
-        <v>0.06317913438686418</v>
+        <v>0.122056198820232</v>
       </c>
       <c r="F10">
-        <v>0.8715653338447495</v>
+        <v>1.714800182459754</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4504316303819706</v>
+        <v>1.068412909307192</v>
       </c>
       <c r="J10">
-        <v>0.0552811633532535</v>
+        <v>0.1480723474264281</v>
       </c>
       <c r="K10">
-        <v>1.419612331226261</v>
+        <v>0.5822807839025472</v>
       </c>
       <c r="L10">
-        <v>0.3000319264067031</v>
+        <v>0.3190492983363384</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8191172132968934</v>
+        <v>1.96733784435899</v>
       </c>
       <c r="O10">
-        <v>2.103662035253421</v>
+        <v>4.434204547313129</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.729785105657697</v>
+        <v>0.8991355763765512</v>
       </c>
       <c r="C11">
-        <v>0.116929328206794</v>
+        <v>0.07300404535126859</v>
       </c>
       <c r="D11">
-        <v>0.133405924576607</v>
+        <v>0.136429924199831</v>
       </c>
       <c r="E11">
-        <v>0.06526047565301241</v>
+        <v>0.1222431084518938</v>
       </c>
       <c r="F11">
-        <v>0.8914054614201348</v>
+        <v>1.713101494637058</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4514603492858171</v>
+        <v>1.064451115026799</v>
       </c>
       <c r="J11">
-        <v>0.05523815284418276</v>
+        <v>0.1476151241628365</v>
       </c>
       <c r="K11">
-        <v>1.522620710800851</v>
+        <v>0.611751552559781</v>
       </c>
       <c r="L11">
-        <v>0.3181106149066295</v>
+        <v>0.3230689841359151</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7905159692991806</v>
+        <v>1.955060619126506</v>
       </c>
       <c r="O11">
-        <v>2.135203894576563</v>
+        <v>4.423989558507401</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.773642112130801</v>
+        <v>0.9112092156240124</v>
       </c>
       <c r="C12">
-        <v>0.1189884402561034</v>
+        <v>0.07367272454864349</v>
       </c>
       <c r="D12">
-        <v>0.1363172029510622</v>
+        <v>0.1371121303970568</v>
       </c>
       <c r="E12">
-        <v>0.06605895902249515</v>
+        <v>0.1223196930645258</v>
       </c>
       <c r="F12">
-        <v>0.8991663581331863</v>
+        <v>1.712566634326478</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4519913521651588</v>
+        <v>1.063015125392624</v>
       </c>
       <c r="J12">
-        <v>0.05523291213157577</v>
+        <v>0.1474484084356185</v>
       </c>
       <c r="K12">
-        <v>1.561713080988454</v>
+        <v>0.6229236479439351</v>
       </c>
       <c r="L12">
-        <v>0.3249971239777523</v>
+        <v>0.3246081869731796</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7798780105368435</v>
+        <v>1.950497975728821</v>
       </c>
       <c r="O12">
-        <v>2.147818914160979</v>
+        <v>4.420407480748651</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.764191362195533</v>
+        <v>0.9086075759584276</v>
       </c>
       <c r="C13">
-        <v>0.1185448677571799</v>
+        <v>0.07352882250192749</v>
       </c>
       <c r="D13">
-        <v>0.1356896296583301</v>
+        <v>0.1369649222553591</v>
       </c>
       <c r="E13">
-        <v>0.06588652322054145</v>
+        <v>0.122302941447586</v>
       </c>
       <c r="F13">
-        <v>0.8974836403164232</v>
+        <v>1.712677008551054</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4518705761776758</v>
+        <v>1.063321534870667</v>
       </c>
       <c r="J13">
-        <v>0.05523354247692325</v>
+        <v>0.1474840281780345</v>
       </c>
       <c r="K13">
-        <v>1.553289825675989</v>
+        <v>0.6205170074313457</v>
       </c>
       <c r="L13">
-        <v>0.3235121336380047</v>
+        <v>0.3242759367403494</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7821603943547348</v>
+        <v>1.951476776734086</v>
       </c>
       <c r="O13">
-        <v>2.145071549246438</v>
+        <v>4.421166226057579</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.733390855822392</v>
+        <v>0.9001282654488421</v>
       </c>
       <c r="C14">
-        <v>0.1170986860936551</v>
+        <v>0.0730591075211322</v>
       </c>
       <c r="D14">
-        <v>0.1336451785223147</v>
+        <v>0.1364859221596788</v>
       </c>
       <c r="E14">
-        <v>0.06532595723601631</v>
+        <v>0.1222492929232963</v>
       </c>
       <c r="F14">
-        <v>0.8920388992330999</v>
+        <v>1.713055320173424</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4515011558759241</v>
+        <v>1.064331687948766</v>
       </c>
       <c r="J14">
-        <v>0.05523749777441367</v>
+        <v>0.1476012796946904</v>
       </c>
       <c r="K14">
-        <v>1.525835075007791</v>
+        <v>0.612670447823092</v>
       </c>
       <c r="L14">
-        <v>0.3186763403287642</v>
+        <v>0.3231952746906899</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7896368727450387</v>
+        <v>1.954683514660067</v>
       </c>
       <c r="O14">
-        <v>2.136228059033755</v>
+        <v>4.423689126727282</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.714540082852011</v>
+        <v>0.894938455183933</v>
       </c>
       <c r="C15">
-        <v>0.1162131539558828</v>
+        <v>0.07277107184819442</v>
       </c>
       <c r="D15">
-        <v>0.1323945662055763</v>
+        <v>0.1361933501617614</v>
       </c>
       <c r="E15">
-        <v>0.06498395550810443</v>
+        <v>0.1222171868834963</v>
       </c>
       <c r="F15">
-        <v>0.8887365735419905</v>
+        <v>1.713301156931536</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4512935259790041</v>
+        <v>1.064958801624414</v>
       </c>
       <c r="J15">
-        <v>0.05524137213397751</v>
+        <v>0.1476739358265213</v>
       </c>
       <c r="K15">
-        <v>1.509029765343911</v>
+        <v>0.6078657664534717</v>
       </c>
       <c r="L15">
-        <v>0.3157196557092448</v>
+        <v>0.3225355522062614</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7942417508616444</v>
+        <v>1.956658995630479</v>
       </c>
       <c r="O15">
-        <v>2.130899748205223</v>
+        <v>4.425271726103603</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.606738921374358</v>
+        <v>0.8652598680459676</v>
       </c>
       <c r="C16">
-        <v>0.1111424538262753</v>
+        <v>0.07111554112935892</v>
       </c>
       <c r="D16">
-        <v>0.1252526904268194</v>
+        <v>0.1345295045899491</v>
       </c>
       <c r="E16">
-        <v>0.06304452852086939</v>
+        <v>0.1220447979176349</v>
       </c>
       <c r="F16">
-        <v>0.8703025934333866</v>
+        <v>1.714926375846026</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4503837773095114</v>
+        <v>1.068680817716846</v>
       </c>
       <c r="J16">
-        <v>0.05528549624807155</v>
+        <v>0.1481031280300478</v>
       </c>
       <c r="K16">
-        <v>1.412891697159324</v>
+        <v>0.5803565373995241</v>
       </c>
       <c r="L16">
-        <v>0.2988559206323487</v>
+        <v>0.3187889940113706</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8210129346752382</v>
+        <v>1.968152291344683</v>
       </c>
       <c r="O16">
-        <v>2.101692345627953</v>
+        <v>4.434912178916534</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.540795019657224</v>
+        <v>0.8471091189431377</v>
       </c>
       <c r="C17">
-        <v>0.1080346041118787</v>
+        <v>0.07009555834900993</v>
       </c>
       <c r="D17">
-        <v>0.1208927658449142</v>
+        <v>0.1335202394502204</v>
       </c>
       <c r="E17">
-        <v>0.0618725552942152</v>
+        <v>0.1219494158469416</v>
       </c>
       <c r="F17">
-        <v>0.8594193024569563</v>
+        <v>1.716116691881282</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4500694715039408</v>
+        <v>1.071078683646157</v>
       </c>
       <c r="J17">
-        <v>0.05533177721859772</v>
+        <v>0.1483778852202349</v>
       </c>
       <c r="K17">
-        <v>1.354051771942522</v>
+        <v>0.5635028854033237</v>
       </c>
       <c r="L17">
-        <v>0.2885790277126148</v>
+        <v>0.3165210964288008</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8377715469770921</v>
+        <v>1.975357089230478</v>
       </c>
       <c r="O17">
-        <v>2.084925978180451</v>
+        <v>4.441336291064403</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.502930451129288</v>
+        <v>0.8366901730234702</v>
       </c>
       <c r="C18">
-        <v>0.1062478548570454</v>
+        <v>0.06950729270349143</v>
       </c>
       <c r="D18">
-        <v>0.1183925959353473</v>
+        <v>0.1329439680077655</v>
       </c>
       <c r="E18">
-        <v>0.06120483797170451</v>
+        <v>0.1218983761833918</v>
       </c>
       <c r="F18">
-        <v>0.8533111285966015</v>
+        <v>1.71687243521238</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4499759061741209</v>
+        <v>1.072499986548362</v>
       </c>
       <c r="J18">
-        <v>0.05536532190602728</v>
+        <v>0.1485401359223459</v>
       </c>
       <c r="K18">
-        <v>1.320255026795564</v>
+        <v>0.5538175471360489</v>
       </c>
       <c r="L18">
-        <v>0.2826921176652917</v>
+        <v>0.3152279142666714</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8475315959063927</v>
+        <v>1.979557708396705</v>
       </c>
       <c r="O18">
-        <v>2.07569289691142</v>
+        <v>4.445218815248467</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.490120822600971</v>
+        <v>0.8331661093080811</v>
       </c>
       <c r="C19">
-        <v>0.1056430074843888</v>
+        <v>0.06930784216149277</v>
       </c>
       <c r="D19">
-        <v>0.1175473476824891</v>
+        <v>0.1327495813107049</v>
       </c>
       <c r="E19">
-        <v>0.06097983859166689</v>
+        <v>0.1218817522960762</v>
       </c>
       <c r="F19">
-        <v>0.8512686076021296</v>
+        <v>1.717140535827497</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.449958985088081</v>
+        <v>1.072988450718391</v>
       </c>
       <c r="J19">
-        <v>0.05537785638489723</v>
+        <v>0.1485957961277116</v>
       </c>
       <c r="K19">
-        <v>1.308819617363667</v>
+        <v>0.5505397274980339</v>
       </c>
       <c r="L19">
-        <v>0.2807029486075407</v>
+        <v>0.3147920019941495</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.850856738146712</v>
+        <v>1.980989689031389</v>
       </c>
       <c r="O19">
-        <v>2.072636062604772</v>
+        <v>4.446565593524298</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.547808068678279</v>
+        <v>0.8490391416893033</v>
       </c>
       <c r="C20">
-        <v>0.1083653513758236</v>
+        <v>0.07020430285135149</v>
       </c>
       <c r="D20">
-        <v>0.1213560995491463</v>
+        <v>0.1336272400614718</v>
       </c>
       <c r="E20">
-        <v>0.06199665069384253</v>
+        <v>0.1219591741273689</v>
       </c>
       <c r="F20">
-        <v>0.8605620521039512</v>
+        <v>1.715982623160485</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4500938506903651</v>
+        <v>1.070819068654583</v>
       </c>
       <c r="J20">
-        <v>0.05532613080490023</v>
+        <v>0.1483482004632393</v>
       </c>
       <c r="K20">
-        <v>1.360310485508734</v>
+        <v>0.5652961171446123</v>
       </c>
       <c r="L20">
-        <v>0.289670503821938</v>
+        <v>0.3167613544374177</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8359749962881127</v>
+        <v>1.974584267353115</v>
       </c>
       <c r="O20">
-        <v>2.086668021831485</v>
+        <v>4.44063302586099</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.742434468468446</v>
+        <v>0.9026180098221062</v>
       </c>
       <c r="C21">
-        <v>0.1175234015585005</v>
+        <v>0.07319714127542909</v>
       </c>
       <c r="D21">
-        <v>0.1342453328630171</v>
+        <v>0.1366264433836051</v>
       </c>
       <c r="E21">
-        <v>0.06549032438913116</v>
+        <v>0.122264893459036</v>
       </c>
       <c r="F21">
-        <v>0.8936313018996742</v>
+        <v>1.712941260759266</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4516057627858956</v>
+        <v>1.064033238225079</v>
       </c>
       <c r="J21">
-        <v>0.05523603269543997</v>
+        <v>0.1475666658506967</v>
       </c>
       <c r="K21">
-        <v>1.533896775764106</v>
+        <v>0.6149748480657991</v>
       </c>
       <c r="L21">
-        <v>0.3200956028592685</v>
+        <v>0.323512230143308</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7874355597608522</v>
+        <v>1.953739271147141</v>
       </c>
       <c r="O21">
-        <v>2.138807071433376</v>
+        <v>4.422940327466279</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.870311709973606</v>
+        <v>0.9378151957427292</v>
       </c>
       <c r="C22">
-        <v>0.1235212831186203</v>
+        <v>0.07513875468755771</v>
       </c>
       <c r="D22">
-        <v>0.1427432134153861</v>
+        <v>0.1386237802673804</v>
       </c>
       <c r="E22">
-        <v>0.06783409529954199</v>
+        <v>0.1224985267141427</v>
       </c>
       <c r="F22">
-        <v>0.9166962929093501</v>
+        <v>1.711585269107999</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4534221645940875</v>
+        <v>1.059972802920974</v>
       </c>
       <c r="J22">
-        <v>0.05524175110803498</v>
+        <v>0.1470933285652904</v>
       </c>
       <c r="K22">
-        <v>1.647849587548308</v>
+        <v>0.6475133061062763</v>
       </c>
       <c r="L22">
-        <v>0.3402179644535153</v>
+        <v>0.3280235446549398</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7568391819821967</v>
+        <v>1.940619902948224</v>
       </c>
       <c r="O22">
-        <v>2.176813195415974</v>
+        <v>4.413044662448954</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.801994064552446</v>
+        <v>0.9190135728763096</v>
       </c>
       <c r="C23">
-        <v>0.1203186764649899</v>
+        <v>0.07410380181413245</v>
       </c>
       <c r="D23">
-        <v>0.1382006178562847</v>
+        <v>0.1375543855439929</v>
       </c>
       <c r="E23">
-        <v>0.06657746252648877</v>
+        <v>0.1223707467916952</v>
       </c>
       <c r="F23">
-        <v>0.904248048359932</v>
+        <v>1.712251256486326</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4523743366105393</v>
+        <v>1.062105692332587</v>
       </c>
       <c r="J23">
-        <v>0.05523264074852108</v>
+        <v>0.147342537386205</v>
       </c>
       <c r="K23">
-        <v>1.586980121823956</v>
+        <v>0.630140687029126</v>
       </c>
       <c r="L23">
-        <v>0.3294553505156301</v>
+        <v>0.3256067391708655</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7730634196894739</v>
+        <v>1.947575839347307</v>
       </c>
       <c r="O23">
-        <v>2.156155181863653</v>
+        <v>4.418173707699509</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.54463732249809</v>
+        <v>0.8481665280012578</v>
       </c>
       <c r="C24">
-        <v>0.108215820612017</v>
+        <v>0.07015514526634092</v>
       </c>
       <c r="D24">
-        <v>0.1211466064938662</v>
+        <v>0.1335788527187702</v>
       </c>
       <c r="E24">
-        <v>0.06194052831082075</v>
+        <v>0.1219547505802474</v>
       </c>
       <c r="F24">
-        <v>0.8600449526973861</v>
+        <v>1.716043013161709</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.45008255802016</v>
+        <v>1.070936307461121</v>
       </c>
       <c r="J24">
-        <v>0.05532866197274799</v>
+        <v>0.1483616075806999</v>
       </c>
       <c r="K24">
-        <v>1.357480825181227</v>
+        <v>0.5644853844057138</v>
       </c>
       <c r="L24">
-        <v>0.2891769810301383</v>
+        <v>0.3166527005696196</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8367868271180194</v>
+        <v>1.974933477945435</v>
       </c>
       <c r="O24">
-        <v>2.085879181885218</v>
+        <v>4.440950382634725</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.269454332014504</v>
+        <v>0.7725480598081731</v>
       </c>
       <c r="C25">
-        <v>0.09518896177935687</v>
+        <v>0.06583483573621862</v>
       </c>
       <c r="D25">
-        <v>0.1030359090768371</v>
+        <v>0.1294526370647588</v>
       </c>
       <c r="E25">
-        <v>0.05718046396277821</v>
+        <v>0.1216522541747</v>
       </c>
       <c r="F25">
-        <v>0.8181083006248215</v>
+        <v>1.722852358993549</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4509183209480732</v>
+        <v>1.082071969781548</v>
       </c>
       <c r="J25">
-        <v>0.05569547684426368</v>
+        <v>0.1496221594904874</v>
       </c>
       <c r="K25">
-        <v>1.111657000952391</v>
+        <v>0.4939905093785057</v>
       </c>
       <c r="L25">
-        <v>0.2466390764719364</v>
+        <v>0.3074250612130385</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9101209973046211</v>
+        <v>2.006607566224706</v>
       </c>
       <c r="O25">
-        <v>2.025627817655703</v>
+        <v>4.472690388619185</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_34/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7175764140682759</v>
+        <v>1.068369369166675</v>
       </c>
       <c r="C2">
-        <v>0.06260135146008849</v>
+        <v>0.08559322712491024</v>
       </c>
       <c r="D2">
-        <v>0.1265557049407491</v>
+        <v>0.08990893150760115</v>
       </c>
       <c r="E2">
-        <v>0.1215562336815807</v>
+        <v>0.05386406375138897</v>
       </c>
       <c r="F2">
-        <v>1.730212186002525</v>
+        <v>0.7916560312452177</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.091659938521605</v>
+        <v>0.4541223333204023</v>
       </c>
       <c r="J2">
-        <v>0.1506897988592826</v>
+        <v>0.05617735783306088</v>
       </c>
       <c r="K2">
-        <v>0.442376835111105</v>
+        <v>0.9316584616859984</v>
       </c>
       <c r="L2">
-        <v>0.3010045715382859</v>
+        <v>0.2159778319164758</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.031795384352552</v>
+        <v>0.9678350383697802</v>
       </c>
       <c r="O2">
-        <v>4.502243148714626</v>
+        <v>1.993270086649432</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.680771382272269</v>
+        <v>0.9327972576622017</v>
       </c>
       <c r="C3">
-        <v>0.0603773326943724</v>
+        <v>0.07907486567511768</v>
       </c>
       <c r="D3">
-        <v>0.1246814889621248</v>
+        <v>0.08112524898032802</v>
       </c>
       <c r="E3">
-        <v>0.1215706998981005</v>
+        <v>0.05172506495369156</v>
       </c>
       <c r="F3">
-        <v>1.736667472839201</v>
+        <v>0.7762518741914306</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.099026108219643</v>
+        <v>0.4577897765626879</v>
       </c>
       <c r="J3">
-        <v>0.1515007563693196</v>
+        <v>0.05662927033265674</v>
       </c>
       <c r="K3">
-        <v>0.4075864759762453</v>
+        <v>0.810074710097183</v>
       </c>
       <c r="L3">
-        <v>0.296888353869754</v>
+        <v>0.1955534042953886</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.050031960776172</v>
+        <v>1.009158230953644</v>
       </c>
       <c r="O3">
-        <v>4.526135960436591</v>
+        <v>1.97819608755502</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6583985860095254</v>
+        <v>0.8498278981171268</v>
       </c>
       <c r="C4">
-        <v>0.05899572011686871</v>
+        <v>0.0750612697909574</v>
       </c>
       <c r="D4">
-        <v>0.1235750177935913</v>
+        <v>0.07578239177437496</v>
       </c>
       <c r="E4">
-        <v>0.1216189954940319</v>
+        <v>0.05046249699159411</v>
       </c>
       <c r="F4">
-        <v>1.741356316376994</v>
+        <v>0.7679644980670872</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.103977940612751</v>
+        <v>0.4607426740469833</v>
       </c>
       <c r="J4">
-        <v>0.1520419333065863</v>
+        <v>0.05696646217344714</v>
       </c>
       <c r="K4">
-        <v>0.386321024341413</v>
+        <v>0.7355540401740654</v>
       </c>
       <c r="L4">
-        <v>0.2944776136466842</v>
+        <v>0.1831706773911037</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.061805402870696</v>
+        <v>1.035586501280498</v>
       </c>
       <c r="O4">
-        <v>4.54271532295482</v>
+        <v>1.972125875467782</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6493390029859256</v>
+        <v>0.8160757379949644</v>
       </c>
       <c r="C5">
-        <v>0.05842868181383665</v>
+        <v>0.07342235690509114</v>
       </c>
       <c r="D5">
-        <v>0.1231353322108646</v>
+        <v>0.07361710679009548</v>
       </c>
       <c r="E5">
-        <v>0.1216486175234266</v>
+        <v>0.04996038109020695</v>
       </c>
       <c r="F5">
-        <v>1.743449680609771</v>
+        <v>0.7648714180411034</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.10610382385719</v>
+        <v>0.4621170701976425</v>
       </c>
       <c r="J5">
-        <v>0.1522733612966842</v>
+        <v>0.05711858808645687</v>
       </c>
       <c r="K5">
-        <v>0.3776799283747891</v>
+        <v>0.7052107061140873</v>
       </c>
       <c r="L5">
-        <v>0.2935246841258845</v>
+        <v>0.1781620072489147</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.066748110782149</v>
+        <v>1.046616684470065</v>
       </c>
       <c r="O5">
-        <v>4.549952074521983</v>
+        <v>1.970425556495414</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6478381625347254</v>
+        <v>0.8104744704631059</v>
       </c>
       <c r="C6">
-        <v>0.05833428325504286</v>
+        <v>0.0731500009095285</v>
       </c>
       <c r="D6">
-        <v>0.1230630018806949</v>
+        <v>0.07325826642219369</v>
       </c>
       <c r="E6">
-        <v>0.1216541375553106</v>
+        <v>0.04987774270732892</v>
       </c>
       <c r="F6">
-        <v>1.743808319357782</v>
+        <v>0.7643746795084851</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.106463349363707</v>
+        <v>0.4623554710326161</v>
       </c>
       <c r="J6">
-        <v>0.1523124482826823</v>
+        <v>0.05714472888377564</v>
       </c>
       <c r="K6">
-        <v>0.3762465938263944</v>
+        <v>0.700173446351485</v>
       </c>
       <c r="L6">
-        <v>0.2933682346817932</v>
+        <v>0.1773325137864816</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.06757759936855</v>
+        <v>1.048463826159852</v>
       </c>
       <c r="O6">
-        <v>4.551182768170293</v>
+        <v>1.970189142710595</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.658276171410705</v>
+        <v>0.8493724805310023</v>
       </c>
       <c r="C7">
-        <v>0.05898808909299191</v>
+        <v>0.07503918100088924</v>
       </c>
       <c r="D7">
-        <v>0.1235690425567029</v>
+        <v>0.0757531423960458</v>
       </c>
       <c r="E7">
-        <v>0.1216193546950173</v>
+        <v>0.0504556756009773</v>
       </c>
       <c r="F7">
-        <v>1.741383808459915</v>
+        <v>0.7679216467441421</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.104006173710069</v>
+        <v>0.4607605237334198</v>
       </c>
       <c r="J7">
-        <v>0.1520450102900242</v>
+        <v>0.0569684545913951</v>
       </c>
       <c r="K7">
-        <v>0.3862043864783686</v>
+        <v>0.7351447316962094</v>
       </c>
       <c r="L7">
-        <v>0.2944646426122617</v>
+        <v>0.1831029803135351</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.061871475033595</v>
+        <v>1.03573421009236</v>
       </c>
       <c r="O7">
-        <v>4.542810974055385</v>
+        <v>1.972099848765453</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7048396587177592</v>
+        <v>1.021561344803587</v>
       </c>
       <c r="C8">
-        <v>0.06183785212275694</v>
+        <v>0.08334772867233653</v>
       </c>
       <c r="D8">
-        <v>0.125900320674603</v>
+        <v>0.08686943741913211</v>
       </c>
       <c r="E8">
-        <v>0.1215530594235261</v>
+        <v>0.05311576201247625</v>
       </c>
       <c r="F8">
-        <v>1.732287585112459</v>
+        <v>0.786095312518043</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.094110821374876</v>
+        <v>0.4552381472700127</v>
       </c>
       <c r="J8">
-        <v>0.1509604530448243</v>
+        <v>0.05632059972927017</v>
       </c>
       <c r="K8">
-        <v>0.4303615592287429</v>
+        <v>0.8897034549167415</v>
       </c>
       <c r="L8">
-        <v>0.2995611732831662</v>
+        <v>0.2089012653024156</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.03796382606891</v>
+        <v>0.9818610997014776</v>
       </c>
       <c r="O8">
-        <v>4.510085441440353</v>
+        <v>1.987394457512607</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7979118093734314</v>
+        <v>1.361877383746702</v>
       </c>
       <c r="C9">
-        <v>0.06729829495397155</v>
+        <v>0.09957593394751996</v>
       </c>
       <c r="D9">
-        <v>0.1308207564177053</v>
+        <v>0.1091018652511337</v>
       </c>
       <c r="E9">
-        <v>0.1217345333303683</v>
+        <v>0.05875338555249066</v>
       </c>
       <c r="F9">
-        <v>1.720194683037604</v>
+        <v>0.8315142386758225</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.078105420177238</v>
+        <v>0.4502181924607385</v>
       </c>
       <c r="J9">
-        <v>0.1491759215874673</v>
+        <v>0.05553807393662424</v>
       </c>
       <c r="K9">
-        <v>0.5176924347111651</v>
+        <v>1.194276802462014</v>
       </c>
       <c r="L9">
-        <v>0.3104755802110475</v>
+        <v>0.2608578014920084</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.995648494263387</v>
+        <v>0.8848254156313704</v>
       </c>
       <c r="O9">
-        <v>4.461039308230681</v>
+        <v>2.043970666469562</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8673338054271085</v>
+        <v>1.614272672203214</v>
       </c>
       <c r="C10">
-        <v>0.07123171116337801</v>
+        <v>0.1114972077142227</v>
       </c>
       <c r="D10">
-        <v>0.1346452404174556</v>
+        <v>0.1257512329450066</v>
       </c>
       <c r="E10">
-        <v>0.122056198820232</v>
+        <v>0.06317913438688194</v>
       </c>
       <c r="F10">
-        <v>1.714800182459754</v>
+        <v>0.8715653338447567</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.068412909307192</v>
+        <v>0.4504316303819849</v>
       </c>
       <c r="J10">
-        <v>0.1480723474264281</v>
+        <v>0.05528116335327482</v>
       </c>
       <c r="K10">
-        <v>0.5822807839025472</v>
+        <v>1.419612331226261</v>
       </c>
       <c r="L10">
-        <v>0.3190492983363384</v>
+        <v>0.3000319264067315</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.96733784435899</v>
+        <v>0.8191172132968942</v>
       </c>
       <c r="O10">
-        <v>4.434204547313129</v>
+        <v>2.103662035253421</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8991355763765512</v>
+        <v>1.729785105657811</v>
       </c>
       <c r="C11">
-        <v>0.07300404535126859</v>
+        <v>0.1169293282073482</v>
       </c>
       <c r="D11">
-        <v>0.136429924199831</v>
+        <v>0.1334059245763655</v>
       </c>
       <c r="E11">
-        <v>0.1222431084518938</v>
+        <v>0.06526047565302662</v>
       </c>
       <c r="F11">
-        <v>1.713101494637058</v>
+        <v>0.8914054614201206</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.064451115026799</v>
+        <v>0.45146034928581</v>
       </c>
       <c r="J11">
-        <v>0.1476151241628365</v>
+        <v>0.0552381528442325</v>
       </c>
       <c r="K11">
-        <v>0.611751552559781</v>
+        <v>1.522620710800908</v>
       </c>
       <c r="L11">
-        <v>0.3230689841359151</v>
+        <v>0.3181106149066153</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.955060619126506</v>
+        <v>0.7905159692991672</v>
       </c>
       <c r="O11">
-        <v>4.423989558507401</v>
+        <v>2.135203894576591</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9112092156240124</v>
+        <v>1.773642112130688</v>
       </c>
       <c r="C12">
-        <v>0.07367272454864349</v>
+        <v>0.1189884402558476</v>
       </c>
       <c r="D12">
-        <v>0.1371121303970568</v>
+        <v>0.1363172029510622</v>
       </c>
       <c r="E12">
-        <v>0.1223196930645258</v>
+        <v>0.06605895902249515</v>
       </c>
       <c r="F12">
-        <v>1.712566634326478</v>
+        <v>0.8991663581331863</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.063015125392624</v>
+        <v>0.4519913521651731</v>
       </c>
       <c r="J12">
-        <v>0.1474484084356185</v>
+        <v>0.05523291213147985</v>
       </c>
       <c r="K12">
-        <v>0.6229236479439351</v>
+        <v>1.561713080988511</v>
       </c>
       <c r="L12">
-        <v>0.3246081869731796</v>
+        <v>0.3249971239776812</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.950497975728821</v>
+        <v>0.7798780105367937</v>
       </c>
       <c r="O12">
-        <v>4.420407480748651</v>
+        <v>2.147818914161007</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9086075759584276</v>
+        <v>1.764191362195533</v>
       </c>
       <c r="C13">
-        <v>0.07352882250192749</v>
+        <v>0.1185448677571941</v>
       </c>
       <c r="D13">
-        <v>0.1369649222553591</v>
+        <v>0.1356896296580743</v>
       </c>
       <c r="E13">
-        <v>0.122302941447586</v>
+        <v>0.06588652322055921</v>
       </c>
       <c r="F13">
-        <v>1.712677008551054</v>
+        <v>0.8974836403164375</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.063321534870667</v>
+        <v>0.4518705761776829</v>
       </c>
       <c r="J13">
-        <v>0.1474840281780345</v>
+        <v>0.05523354247701207</v>
       </c>
       <c r="K13">
-        <v>0.6205170074313457</v>
+        <v>1.553289825676018</v>
       </c>
       <c r="L13">
-        <v>0.3242759367403494</v>
+        <v>0.3235121336379194</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.951476776734086</v>
+        <v>0.7821603943547375</v>
       </c>
       <c r="O13">
-        <v>4.421166226057579</v>
+        <v>2.145071549246438</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9001282654488421</v>
+        <v>1.733390855822449</v>
       </c>
       <c r="C14">
-        <v>0.0730591075211322</v>
+        <v>0.1170986860933141</v>
       </c>
       <c r="D14">
-        <v>0.1364859221596788</v>
+        <v>0.1336451785224284</v>
       </c>
       <c r="E14">
-        <v>0.1222492929232963</v>
+        <v>0.06532595723603407</v>
       </c>
       <c r="F14">
-        <v>1.713055320173424</v>
+        <v>0.8920388992330999</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.064331687948766</v>
+        <v>0.4515011558759312</v>
       </c>
       <c r="J14">
-        <v>0.1476012796946904</v>
+        <v>0.05523749777435683</v>
       </c>
       <c r="K14">
-        <v>0.612670447823092</v>
+        <v>1.525835075007905</v>
       </c>
       <c r="L14">
-        <v>0.3231952746906899</v>
+        <v>0.3186763403287642</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.954683514660067</v>
+        <v>0.7896368727450218</v>
       </c>
       <c r="O14">
-        <v>4.423689126727282</v>
+        <v>2.13622805903384</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.894938455183933</v>
+        <v>1.714540082852153</v>
       </c>
       <c r="C15">
-        <v>0.07277107184819442</v>
+        <v>0.116213153956366</v>
       </c>
       <c r="D15">
-        <v>0.1361933501617614</v>
+        <v>0.1323945662056332</v>
       </c>
       <c r="E15">
-        <v>0.1222171868834963</v>
+        <v>0.06498395550809022</v>
       </c>
       <c r="F15">
-        <v>1.713301156931536</v>
+        <v>0.8887365735419905</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.064958801624414</v>
+        <v>0.451293525978997</v>
       </c>
       <c r="J15">
-        <v>0.1476739358265213</v>
+        <v>0.05524137213391356</v>
       </c>
       <c r="K15">
-        <v>0.6078657664534717</v>
+        <v>1.509029765344025</v>
       </c>
       <c r="L15">
-        <v>0.3225355522062614</v>
+        <v>0.3157196557091737</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.956658995630479</v>
+        <v>0.7942417508616444</v>
       </c>
       <c r="O15">
-        <v>4.425271726103603</v>
+        <v>2.13089974820528</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8652598680459676</v>
+        <v>1.606738921374472</v>
       </c>
       <c r="C16">
-        <v>0.07111554112935892</v>
+        <v>0.1111424538262611</v>
       </c>
       <c r="D16">
-        <v>0.1345295045899491</v>
+        <v>0.1252526904266205</v>
       </c>
       <c r="E16">
-        <v>0.1220447979176349</v>
+        <v>0.06304452852083742</v>
       </c>
       <c r="F16">
-        <v>1.714926375846026</v>
+        <v>0.8703025934333795</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.068680817716846</v>
+        <v>0.4503837773094972</v>
       </c>
       <c r="J16">
-        <v>0.1481031280300478</v>
+        <v>0.05528549624807155</v>
       </c>
       <c r="K16">
-        <v>0.5803565373995241</v>
+        <v>1.412891697159239</v>
       </c>
       <c r="L16">
-        <v>0.3187889940113706</v>
+        <v>0.2988559206323345</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.968152291344683</v>
+        <v>0.8210129346752133</v>
       </c>
       <c r="O16">
-        <v>4.434912178916534</v>
+        <v>2.101692345627981</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8471091189431377</v>
+        <v>1.540795019657253</v>
       </c>
       <c r="C17">
-        <v>0.07009555834900993</v>
+        <v>0.1080346041118645</v>
       </c>
       <c r="D17">
-        <v>0.1335202394502204</v>
+        <v>0.1208927658448005</v>
       </c>
       <c r="E17">
-        <v>0.1219494158469416</v>
+        <v>0.06187255529422941</v>
       </c>
       <c r="F17">
-        <v>1.716116691881282</v>
+        <v>0.8594193024569492</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.071078683646157</v>
+        <v>0.4500694715039266</v>
       </c>
       <c r="J17">
-        <v>0.1483778852202349</v>
+        <v>0.05533177721864391</v>
       </c>
       <c r="K17">
-        <v>0.5635028854033237</v>
+        <v>1.354051771942522</v>
       </c>
       <c r="L17">
-        <v>0.3165210964288008</v>
+        <v>0.2885790277125153</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.975357089230478</v>
+        <v>0.8377715469770743</v>
       </c>
       <c r="O17">
-        <v>4.441336291064403</v>
+        <v>2.084925978180479</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8366901730234702</v>
+        <v>1.502930451129458</v>
       </c>
       <c r="C18">
-        <v>0.06950729270349143</v>
+        <v>0.1062478548565906</v>
       </c>
       <c r="D18">
-        <v>0.1329439680077655</v>
+        <v>0.1183925959352479</v>
       </c>
       <c r="E18">
-        <v>0.1218983761833918</v>
+        <v>0.06120483797170451</v>
       </c>
       <c r="F18">
-        <v>1.71687243521238</v>
+        <v>0.8533111285965944</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.072499986548362</v>
+        <v>0.4499759061741102</v>
       </c>
       <c r="J18">
-        <v>0.1485401359223459</v>
+        <v>0.05536532190608412</v>
       </c>
       <c r="K18">
-        <v>0.5538175471360489</v>
+        <v>1.32025502679565</v>
       </c>
       <c r="L18">
-        <v>0.3152279142666714</v>
+        <v>0.282692117665249</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.979557708396705</v>
+        <v>0.8475315959064513</v>
       </c>
       <c r="O18">
-        <v>4.445218815248467</v>
+        <v>2.075692896911477</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8331661093080811</v>
+        <v>1.490120822600829</v>
       </c>
       <c r="C19">
-        <v>0.06930784216149277</v>
+        <v>0.1056430074846304</v>
       </c>
       <c r="D19">
-        <v>0.1327495813107049</v>
+        <v>0.1175473476823612</v>
       </c>
       <c r="E19">
-        <v>0.1218817522960762</v>
+        <v>0.06097983859166689</v>
       </c>
       <c r="F19">
-        <v>1.717140535827497</v>
+        <v>0.8512686076021083</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.072988450718391</v>
+        <v>0.4499589850880668</v>
       </c>
       <c r="J19">
-        <v>0.1485957961277116</v>
+        <v>0.05537785638483683</v>
       </c>
       <c r="K19">
-        <v>0.5505397274980339</v>
+        <v>1.308819617363525</v>
       </c>
       <c r="L19">
-        <v>0.3147920019941495</v>
+        <v>0.2807029486075407</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.980989689031389</v>
+        <v>0.8508567381467067</v>
       </c>
       <c r="O19">
-        <v>4.446565593524298</v>
+        <v>2.072636062604772</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8490391416893033</v>
+        <v>1.547808068678052</v>
       </c>
       <c r="C20">
-        <v>0.07020430285135149</v>
+        <v>0.1083653513756815</v>
       </c>
       <c r="D20">
-        <v>0.1336272400614718</v>
+        <v>0.1213560995492458</v>
       </c>
       <c r="E20">
-        <v>0.1219591741273689</v>
+        <v>0.06199665069383897</v>
       </c>
       <c r="F20">
-        <v>1.715982623160485</v>
+        <v>0.8605620521039512</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.070819068654583</v>
+        <v>0.4500938506903616</v>
       </c>
       <c r="J20">
-        <v>0.1483482004632393</v>
+        <v>0.0553261308048576</v>
       </c>
       <c r="K20">
-        <v>0.5652961171446123</v>
+        <v>1.360310485508734</v>
       </c>
       <c r="L20">
-        <v>0.3167613544374177</v>
+        <v>0.289670503821938</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.974584267353115</v>
+        <v>0.8359749962880958</v>
       </c>
       <c r="O20">
-        <v>4.44063302586099</v>
+        <v>2.086668021831457</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9026180098221062</v>
+        <v>1.742434468468304</v>
       </c>
       <c r="C21">
-        <v>0.07319714127542909</v>
+        <v>0.1175234015587137</v>
       </c>
       <c r="D21">
-        <v>0.1366264433836051</v>
+        <v>0.1342453328631592</v>
       </c>
       <c r="E21">
-        <v>0.122264893459036</v>
+        <v>0.06549032438909919</v>
       </c>
       <c r="F21">
-        <v>1.712941260759266</v>
+        <v>0.8936313018996884</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.064033238225079</v>
+        <v>0.4516057627858956</v>
       </c>
       <c r="J21">
-        <v>0.1475666658506967</v>
+        <v>0.05523603269554656</v>
       </c>
       <c r="K21">
-        <v>0.6149748480657991</v>
+        <v>1.533896775764021</v>
       </c>
       <c r="L21">
-        <v>0.323512230143308</v>
+        <v>0.3200956028593254</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.953739271147141</v>
+        <v>0.7874355597608194</v>
       </c>
       <c r="O21">
-        <v>4.422940327466279</v>
+        <v>2.138807071433348</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9378151957427292</v>
+        <v>1.870311709973521</v>
       </c>
       <c r="C22">
-        <v>0.07513875468755771</v>
+        <v>0.1235212831192172</v>
       </c>
       <c r="D22">
-        <v>0.1386237802673804</v>
+        <v>0.1427432134155424</v>
       </c>
       <c r="E22">
-        <v>0.1224985267141427</v>
+        <v>0.06783409529952777</v>
       </c>
       <c r="F22">
-        <v>1.711585269107999</v>
+        <v>0.9166962929093501</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.059972802920974</v>
+        <v>0.4534221645941017</v>
       </c>
       <c r="J22">
-        <v>0.1470933285652904</v>
+        <v>0.0552417511080634</v>
       </c>
       <c r="K22">
-        <v>0.6475133061062763</v>
+        <v>1.647849587548279</v>
       </c>
       <c r="L22">
-        <v>0.3280235446549398</v>
+        <v>0.3402179644534442</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.940619902948224</v>
+        <v>0.7568391819821985</v>
       </c>
       <c r="O22">
-        <v>4.413044662448954</v>
+        <v>2.176813195416031</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9190135728763096</v>
+        <v>1.801994064552702</v>
       </c>
       <c r="C23">
-        <v>0.07410380181413245</v>
+        <v>0.1203186764649899</v>
       </c>
       <c r="D23">
-        <v>0.1375543855439929</v>
+        <v>0.1382006178561568</v>
       </c>
       <c r="E23">
-        <v>0.1223707467916952</v>
+        <v>0.06657746252647456</v>
       </c>
       <c r="F23">
-        <v>1.712251256486326</v>
+        <v>0.904248048359932</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.062105692332587</v>
+        <v>0.4523743366105322</v>
       </c>
       <c r="J23">
-        <v>0.147342537386205</v>
+        <v>0.05523264074847845</v>
       </c>
       <c r="K23">
-        <v>0.630140687029126</v>
+        <v>1.586980121823927</v>
       </c>
       <c r="L23">
-        <v>0.3256067391708655</v>
+        <v>0.3294553505156017</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.947575839347307</v>
+        <v>0.7730634196894517</v>
       </c>
       <c r="O23">
-        <v>4.418173707699509</v>
+        <v>2.156155181863596</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8481665280012578</v>
+        <v>1.54463732249809</v>
       </c>
       <c r="C24">
-        <v>0.07015514526634092</v>
+        <v>0.108215820612017</v>
       </c>
       <c r="D24">
-        <v>0.1335788527187702</v>
+        <v>0.1211466064938094</v>
       </c>
       <c r="E24">
-        <v>0.1219547505802474</v>
+        <v>0.06194052831080654</v>
       </c>
       <c r="F24">
-        <v>1.716043013161709</v>
+        <v>0.8600449526973719</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.070936307461121</v>
+        <v>0.4500825580201528</v>
       </c>
       <c r="J24">
-        <v>0.1483616075806999</v>
+        <v>0.05532866197277286</v>
       </c>
       <c r="K24">
-        <v>0.5644853844057138</v>
+        <v>1.357480825181227</v>
       </c>
       <c r="L24">
-        <v>0.3166527005696196</v>
+        <v>0.2891769810301241</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.974933477945435</v>
+        <v>0.8367868271179431</v>
       </c>
       <c r="O24">
-        <v>4.440950382634725</v>
+        <v>2.08587918188519</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7725480598081731</v>
+        <v>1.269454332014419</v>
       </c>
       <c r="C25">
-        <v>0.06583483573621862</v>
+        <v>0.09518896177912239</v>
       </c>
       <c r="D25">
-        <v>0.1294526370647588</v>
+        <v>0.1030359090769508</v>
       </c>
       <c r="E25">
-        <v>0.1216522541747</v>
+        <v>0.0571804639627711</v>
       </c>
       <c r="F25">
-        <v>1.722852358993549</v>
+        <v>0.8181083006248144</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.082071969781548</v>
+        <v>0.4509183209480732</v>
       </c>
       <c r="J25">
-        <v>0.1496221594904874</v>
+        <v>0.05569547684427434</v>
       </c>
       <c r="K25">
-        <v>0.4939905093785057</v>
+        <v>1.111657000952448</v>
       </c>
       <c r="L25">
-        <v>0.3074250612130385</v>
+        <v>0.2466390764719222</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.006607566224706</v>
+        <v>0.9101209973046229</v>
       </c>
       <c r="O25">
-        <v>4.472690388619185</v>
+        <v>2.025627817655646</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.068369369166675</v>
+        <v>2.465102307827863</v>
       </c>
       <c r="C2">
-        <v>0.08559322712491024</v>
+        <v>0.8030621463397836</v>
       </c>
       <c r="D2">
-        <v>0.08990893150760115</v>
+        <v>0.03574849532067503</v>
       </c>
       <c r="E2">
-        <v>0.05386406375138897</v>
+        <v>1.372070904998836</v>
       </c>
       <c r="F2">
-        <v>0.7916560312452177</v>
+        <v>0.6056282885606734</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01318929769526017</v>
       </c>
       <c r="I2">
-        <v>0.4541223333204023</v>
+        <v>0.008112514299274842</v>
       </c>
       <c r="J2">
-        <v>0.05617735783306088</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0.9316584616859984</v>
+        <v>0.2318262591203073</v>
       </c>
       <c r="L2">
-        <v>0.2159778319164758</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9678350383697802</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.993270086649432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.7356496755571484</v>
+      </c>
+      <c r="Q2">
+        <v>1.747549888551816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9327972576622017</v>
+        <v>2.146726709965776</v>
       </c>
       <c r="C3">
-        <v>0.07907486567511768</v>
+        <v>0.7055775216799134</v>
       </c>
       <c r="D3">
-        <v>0.08112524898032802</v>
+        <v>0.03196160551709681</v>
       </c>
       <c r="E3">
-        <v>0.05172506495369156</v>
+        <v>1.197080427364497</v>
       </c>
       <c r="F3">
-        <v>0.7762518741914306</v>
+        <v>0.5482513021014128</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.009728035754513857</v>
       </c>
       <c r="I3">
-        <v>0.4577897765626879</v>
+        <v>0.005921371344725035</v>
       </c>
       <c r="J3">
-        <v>0.05662927033265674</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0.810074710097183</v>
+        <v>0.2269748378081786</v>
       </c>
       <c r="L3">
-        <v>0.1955534042953886</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.009158230953644</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.97819608755502</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.7352702223656706</v>
+      </c>
+      <c r="Q3">
+        <v>1.60160261374736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8498278981171268</v>
+        <v>1.950557555757541</v>
       </c>
       <c r="C4">
-        <v>0.0750612697909574</v>
+        <v>0.6460308279736751</v>
       </c>
       <c r="D4">
-        <v>0.07578239177437496</v>
+        <v>0.02963485389168952</v>
       </c>
       <c r="E4">
-        <v>0.05046249699159411</v>
+        <v>1.089879083708283</v>
       </c>
       <c r="F4">
-        <v>0.7679644980670872</v>
+        <v>0.5135400675362831</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.007802060917571296</v>
       </c>
       <c r="I4">
-        <v>0.4607426740469833</v>
+        <v>0.004742512691151113</v>
       </c>
       <c r="J4">
-        <v>0.05696646217344714</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0.7355540401740654</v>
+        <v>0.2242379230552913</v>
       </c>
       <c r="L4">
-        <v>0.1831706773911037</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.035586501280498</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.972125875467782</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.7357215175992735</v>
+      </c>
+      <c r="Q4">
+        <v>1.51348713585773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8160757379949644</v>
+        <v>1.869277000074248</v>
       </c>
       <c r="C5">
-        <v>0.07342235690509114</v>
+        <v>0.6226180604332114</v>
       </c>
       <c r="D5">
-        <v>0.07361710679009548</v>
+        <v>0.02872432689317961</v>
       </c>
       <c r="E5">
-        <v>0.04996038109020695</v>
+        <v>1.046217631048592</v>
       </c>
       <c r="F5">
-        <v>0.7648714180411034</v>
+        <v>0.4990283348445672</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.007061537371190085</v>
       </c>
       <c r="I5">
-        <v>0.4621170701976425</v>
+        <v>0.004352945504469297</v>
       </c>
       <c r="J5">
-        <v>0.05711858808645687</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0.7052107061140873</v>
+        <v>0.2228544766308431</v>
       </c>
       <c r="L5">
-        <v>0.1781620072489147</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.046616684470065</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.970425556495414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.7364644148171422</v>
+      </c>
+      <c r="Q5">
+        <v>1.476260075881299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8104744704631059</v>
+        <v>1.854350721464613</v>
       </c>
       <c r="C6">
-        <v>0.0731500009095285</v>
+        <v>0.6196971615062239</v>
       </c>
       <c r="D6">
-        <v>0.07325826642219369</v>
+        <v>0.02861998003978883</v>
       </c>
       <c r="E6">
-        <v>0.04987774270732892</v>
+        <v>1.03894835578653</v>
       </c>
       <c r="F6">
-        <v>0.7643746795084851</v>
+        <v>0.4960325574134714</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.006939262307886052</v>
       </c>
       <c r="I6">
-        <v>0.4623554710326161</v>
+        <v>0.004361822046885955</v>
       </c>
       <c r="J6">
-        <v>0.05714472888377564</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0.700173446351485</v>
+        <v>0.2222312328479532</v>
       </c>
       <c r="L6">
-        <v>0.1773325137864816</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.048463826159852</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.970189142710595</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.7370804206487307</v>
+      </c>
+      <c r="Q6">
+        <v>1.468067913836336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8493724805310023</v>
+        <v>1.9455734019879</v>
       </c>
       <c r="C7">
-        <v>0.07503918100088924</v>
+        <v>0.6483519712589612</v>
       </c>
       <c r="D7">
-        <v>0.0757531423960458</v>
+        <v>0.02975101516031131</v>
       </c>
       <c r="E7">
-        <v>0.0504556756009773</v>
+        <v>1.08923156097454</v>
       </c>
       <c r="F7">
-        <v>0.7679216467441421</v>
+        <v>0.5117217362469049</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.007786234665825509</v>
       </c>
       <c r="I7">
-        <v>0.4607605237334198</v>
+        <v>0.004917181497305023</v>
       </c>
       <c r="J7">
-        <v>0.0569684545913951</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0.7351447316962094</v>
+        <v>0.2231343679696138</v>
       </c>
       <c r="L7">
-        <v>0.1831029803135351</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.03573421009236</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.972099848765453</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.7370633518884375</v>
+      </c>
+      <c r="Q7">
+        <v>1.507430026306878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.021561344803587</v>
+        <v>2.350258093168179</v>
       </c>
       <c r="C8">
-        <v>0.08334772867233653</v>
+        <v>0.7729026105370735</v>
       </c>
       <c r="D8">
-        <v>0.08686943741913211</v>
+        <v>0.03461484674966187</v>
       </c>
       <c r="E8">
-        <v>0.05311576201247625</v>
+        <v>1.311591537689566</v>
       </c>
       <c r="F8">
-        <v>0.786095312518043</v>
+        <v>0.5835719933987846</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01194317198393147</v>
       </c>
       <c r="I8">
-        <v>0.4552381472700127</v>
+        <v>0.007532051950366103</v>
       </c>
       <c r="J8">
-        <v>0.05632059972927017</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0.8897034549167415</v>
+        <v>0.2286648571622649</v>
       </c>
       <c r="L8">
-        <v>0.2089012653024156</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9818610997014776</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.987394457512607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.7371993774776513</v>
+      </c>
+      <c r="Q8">
+        <v>1.689513414389182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.361877383746702</v>
+        <v>3.145941281690455</v>
       </c>
       <c r="C9">
-        <v>0.09957593394751996</v>
+        <v>1.015328889546623</v>
       </c>
       <c r="D9">
-        <v>0.1091018652511337</v>
+        <v>0.04391669283135968</v>
       </c>
       <c r="E9">
-        <v>0.05875338555249066</v>
+        <v>1.750637977600746</v>
       </c>
       <c r="F9">
-        <v>0.8315142386758225</v>
+        <v>0.7320993624930736</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.02188448128372089</v>
       </c>
       <c r="I9">
-        <v>0.4502181924607385</v>
+        <v>0.01387599481073831</v>
       </c>
       <c r="J9">
-        <v>0.05553807393662424</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>1.194276802462014</v>
+        <v>0.2435673143164152</v>
       </c>
       <c r="L9">
-        <v>0.2608578014920084</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8848254156313704</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.043970666469562</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.7406881902715696</v>
+      </c>
+      <c r="Q9">
+        <v>2.070169352412279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.614272672203214</v>
+        <v>3.711401395780058</v>
       </c>
       <c r="C10">
-        <v>0.1114972077142227</v>
+        <v>1.188777628039304</v>
       </c>
       <c r="D10">
-        <v>0.1257512329450066</v>
+        <v>0.05171149238808681</v>
       </c>
       <c r="E10">
-        <v>0.06317913438688194</v>
+        <v>1.973468941674099</v>
       </c>
       <c r="F10">
-        <v>0.8715653338447567</v>
+        <v>0.8341179179607252</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.02977118703811099</v>
       </c>
       <c r="I10">
-        <v>0.4504316303819849</v>
+        <v>0.01958275191260306</v>
       </c>
       <c r="J10">
-        <v>0.05528116335327482</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>1.419612331226261</v>
+        <v>0.2519572231911731</v>
       </c>
       <c r="L10">
-        <v>0.3000319264067315</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8191172132968942</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.103662035253421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.7536928724115626</v>
+      </c>
+      <c r="Q10">
+        <v>2.323977260686178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.729785105657811</v>
+        <v>3.831625743044754</v>
       </c>
       <c r="C11">
-        <v>0.1169293282073482</v>
+        <v>1.198619761238149</v>
       </c>
       <c r="D11">
-        <v>0.1334059245763655</v>
+        <v>0.06370263995789571</v>
       </c>
       <c r="E11">
-        <v>0.06526047565302662</v>
+        <v>1.280939693847898</v>
       </c>
       <c r="F11">
-        <v>0.8914054614201206</v>
+        <v>0.7925136309763019</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04486289272328747</v>
       </c>
       <c r="I11">
-        <v>0.45146034928581</v>
+        <v>0.02126051008093732</v>
       </c>
       <c r="J11">
-        <v>0.0552381528442325</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>1.522620710800908</v>
+        <v>0.2241641187461028</v>
       </c>
       <c r="L11">
-        <v>0.3181106149066153</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7905159692991672</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.135203894576591</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.8169834183230762</v>
+      </c>
+      <c r="Q11">
+        <v>2.14379021183467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.773642112130688</v>
+        <v>3.818956623502686</v>
       </c>
       <c r="C12">
-        <v>0.1189884402558476</v>
+        <v>1.166437825203332</v>
       </c>
       <c r="D12">
-        <v>0.1363172029510622</v>
+        <v>0.07265771114678898</v>
       </c>
       <c r="E12">
-        <v>0.06605895902249515</v>
+        <v>0.7821254464756038</v>
       </c>
       <c r="F12">
-        <v>0.8991663581331863</v>
+        <v>0.7391116204461241</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08047570254894509</v>
       </c>
       <c r="I12">
-        <v>0.4519913521651731</v>
+        <v>0.02121975553871902</v>
       </c>
       <c r="J12">
-        <v>0.05523291213147985</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>1.561713080988511</v>
+        <v>0.201555994355104</v>
       </c>
       <c r="L12">
-        <v>0.3249971239776812</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7798780105367937</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.147818914161007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.8691110149933508</v>
+      </c>
+      <c r="Q12">
+        <v>1.952105857507235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.764191362195533</v>
+        <v>3.697403056922269</v>
       </c>
       <c r="C13">
-        <v>0.1185448677571941</v>
+        <v>1.104656666803436</v>
       </c>
       <c r="D13">
-        <v>0.1356896296580743</v>
+        <v>0.07988122240024609</v>
       </c>
       <c r="E13">
-        <v>0.06588652322055921</v>
+        <v>0.403592261347967</v>
       </c>
       <c r="F13">
-        <v>0.8974836403164375</v>
+        <v>0.6711688180406412</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1331878621129334</v>
       </c>
       <c r="I13">
-        <v>0.4518705761776829</v>
+        <v>0.02012350687316999</v>
       </c>
       <c r="J13">
-        <v>0.05523354247701207</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>1.553289825676018</v>
+        <v>0.1799098842370732</v>
       </c>
       <c r="L13">
-        <v>0.3235121336379194</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7821603943547375</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.145071549246438</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.9167649559152125</v>
+      </c>
+      <c r="Q13">
+        <v>1.732429152121199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.733390855822449</v>
+        <v>3.562532871758776</v>
       </c>
       <c r="C14">
-        <v>0.1170986860933141</v>
+        <v>1.04934145285722</v>
       </c>
       <c r="D14">
-        <v>0.1336451785224284</v>
+        <v>0.08422236104130576</v>
       </c>
       <c r="E14">
-        <v>0.06532595723603407</v>
+        <v>0.2115866873553642</v>
       </c>
       <c r="F14">
-        <v>0.8920388992330999</v>
+        <v>0.6172230813106196</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1805382885743683</v>
       </c>
       <c r="I14">
-        <v>0.4515011558759312</v>
+        <v>0.0189903438267347</v>
       </c>
       <c r="J14">
-        <v>0.05523749777435683</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>1.525835075007905</v>
+        <v>0.1652038554576158</v>
       </c>
       <c r="L14">
-        <v>0.3186763403287642</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7896368727450218</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.13622805903384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.9486291362177042</v>
+      </c>
+      <c r="Q14">
+        <v>1.56692139466216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.714540082852153</v>
+        <v>3.50528300245378</v>
       </c>
       <c r="C15">
-        <v>0.116213153956366</v>
+        <v>1.030617052039531</v>
       </c>
       <c r="D15">
-        <v>0.1323945662056332</v>
+        <v>0.084874014144809</v>
       </c>
       <c r="E15">
-        <v>0.06498395550809022</v>
+        <v>0.1738289717171249</v>
       </c>
       <c r="F15">
-        <v>0.8887365735419905</v>
+        <v>0.6004573998689509</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1923806759016742</v>
       </c>
       <c r="I15">
-        <v>0.451293525978997</v>
+        <v>0.01857485057124997</v>
       </c>
       <c r="J15">
-        <v>0.05524137213391356</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>1.509029765344025</v>
+        <v>0.1614221434776155</v>
       </c>
       <c r="L15">
-        <v>0.3157196557091737</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7942417508616444</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.13089974820528</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.9555671958766681</v>
+      </c>
+      <c r="Q15">
+        <v>1.518550065905373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.606738921374472</v>
+        <v>3.287755325529986</v>
       </c>
       <c r="C16">
-        <v>0.1111424538262611</v>
+        <v>0.97201193223259</v>
       </c>
       <c r="D16">
-        <v>0.1252526904266205</v>
+        <v>0.07983488163953467</v>
       </c>
       <c r="E16">
-        <v>0.06304452852083742</v>
+        <v>0.1698710467815658</v>
       </c>
       <c r="F16">
-        <v>0.8703025934333795</v>
+        <v>0.5707233082417034</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1772032913195432</v>
       </c>
       <c r="I16">
-        <v>0.4503837773094972</v>
+        <v>0.01647022295229927</v>
       </c>
       <c r="J16">
-        <v>0.05528549624807155</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>1.412891697159239</v>
+        <v>0.1617709130041831</v>
       </c>
       <c r="L16">
-        <v>0.2988559206323345</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8210129346752133</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.101692345627981</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.937867676346599</v>
+      </c>
+      <c r="Q16">
+        <v>1.455279214376418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.540795019657253</v>
+        <v>3.192112793346666</v>
       </c>
       <c r="C17">
-        <v>0.1080346041118645</v>
+        <v>0.9562576358154899</v>
       </c>
       <c r="D17">
-        <v>0.1208927658448005</v>
+        <v>0.073673301587732</v>
       </c>
       <c r="E17">
-        <v>0.06187255529422941</v>
+        <v>0.2550301132087966</v>
       </c>
       <c r="F17">
-        <v>0.8594193024569492</v>
+        <v>0.5762807595610937</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1385276988892343</v>
       </c>
       <c r="I17">
-        <v>0.4500694715039266</v>
+        <v>0.01547295828374473</v>
       </c>
       <c r="J17">
-        <v>0.05533177721864391</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>1.354051771942522</v>
+        <v>0.1697163050185502</v>
       </c>
       <c r="L17">
-        <v>0.2885790277125153</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8377715469770743</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.084925978180479</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.9077986754948171</v>
+      </c>
+      <c r="Q17">
+        <v>1.493376239634273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.502930451129458</v>
+        <v>3.193407943312991</v>
       </c>
       <c r="C18">
-        <v>0.1062478548565906</v>
+        <v>0.973797045724865</v>
       </c>
       <c r="D18">
-        <v>0.1183925959352479</v>
+        <v>0.06597667102445826</v>
       </c>
       <c r="E18">
-        <v>0.06120483797170451</v>
+        <v>0.4901173140233439</v>
       </c>
       <c r="F18">
-        <v>0.8533111285965944</v>
+        <v>0.6145190741168847</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08649451918476814</v>
       </c>
       <c r="I18">
-        <v>0.4499759061741102</v>
+        <v>0.01508059669455086</v>
       </c>
       <c r="J18">
-        <v>0.05536532190608412</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>1.32025502679565</v>
+        <v>0.1863012495782286</v>
       </c>
       <c r="L18">
-        <v>0.282692117665249</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8475315959064513</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.075692896911477</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.8634937075511147</v>
+      </c>
+      <c r="Q18">
+        <v>1.630031497916264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.490120822600829</v>
+        <v>3.265666839105677</v>
       </c>
       <c r="C19">
-        <v>0.1056430074846304</v>
+        <v>1.022866781627442</v>
       </c>
       <c r="D19">
-        <v>0.1175473476823612</v>
+        <v>0.05829764811889504</v>
       </c>
       <c r="E19">
-        <v>0.06097983859166689</v>
+        <v>0.9270569363912387</v>
       </c>
       <c r="F19">
-        <v>0.8512686076021083</v>
+        <v>0.6749631581428872</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.04417109081135351</v>
       </c>
       <c r="I19">
-        <v>0.4499589850880668</v>
+        <v>0.01571852867008694</v>
       </c>
       <c r="J19">
-        <v>0.05537785638483683</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>1.308819617363525</v>
+        <v>0.2079646773003532</v>
       </c>
       <c r="L19">
-        <v>0.2807029486075407</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8508567381467067</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.072636062604772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.8164390746409822</v>
+      </c>
+      <c r="Q19">
+        <v>1.833779961002875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.547808068678052</v>
+        <v>3.549937117171396</v>
       </c>
       <c r="C20">
-        <v>0.1083653513756815</v>
+        <v>1.151186985265781</v>
       </c>
       <c r="D20">
-        <v>0.1213560995492458</v>
+        <v>0.05011650946466517</v>
       </c>
       <c r="E20">
-        <v>0.06199665069383897</v>
+        <v>1.910320376838911</v>
       </c>
       <c r="F20">
-        <v>0.8605620521039512</v>
+        <v>0.8015272075093662</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02752705158259205</v>
       </c>
       <c r="I20">
-        <v>0.4500938506903616</v>
+        <v>0.01857429593985938</v>
       </c>
       <c r="J20">
-        <v>0.0553261308048576</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>1.360310485508734</v>
+        <v>0.2461368779320807</v>
       </c>
       <c r="L20">
-        <v>0.289670503821938</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8359749962880958</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.086668021831457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.7548775005479058</v>
+      </c>
+      <c r="Q20">
+        <v>2.237697974901891</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.742434468468304</v>
+        <v>4.008876642562313</v>
       </c>
       <c r="C21">
-        <v>0.1175234015587137</v>
+        <v>1.296771728276497</v>
       </c>
       <c r="D21">
-        <v>0.1342453328631592</v>
+        <v>0.0546542816856217</v>
       </c>
       <c r="E21">
-        <v>0.06549032438909919</v>
+        <v>2.24174580994773</v>
       </c>
       <c r="F21">
-        <v>0.8936313018996884</v>
+        <v>0.897835673631846</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0353192895739185</v>
       </c>
       <c r="I21">
-        <v>0.4516057627858956</v>
+        <v>0.02352466348790028</v>
       </c>
       <c r="J21">
-        <v>0.05523603269554656</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>1.533896775764021</v>
+        <v>0.2594359526493726</v>
       </c>
       <c r="L21">
-        <v>0.3200956028593254</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7874355597608194</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.138807071433348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.7563527418009528</v>
+      </c>
+      <c r="Q21">
+        <v>2.492692041730891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.870311709973521</v>
+        <v>4.306406035505859</v>
       </c>
       <c r="C22">
-        <v>0.1235212831192172</v>
+        <v>1.384733672645211</v>
       </c>
       <c r="D22">
-        <v>0.1427432134155424</v>
+        <v>0.05790239804387198</v>
       </c>
       <c r="E22">
-        <v>0.06783409529952777</v>
+        <v>2.407188167299495</v>
       </c>
       <c r="F22">
-        <v>0.9166962929093501</v>
+        <v>0.9588132431970138</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.04036632308180188</v>
       </c>
       <c r="I22">
-        <v>0.4534221645941017</v>
+        <v>0.02672435835552101</v>
       </c>
       <c r="J22">
-        <v>0.0552417511080634</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>1.647849587548279</v>
+        <v>0.2680930100571715</v>
       </c>
       <c r="L22">
-        <v>0.3402179644534442</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7568391819821985</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.176813195416031</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.7591464501100518</v>
+      </c>
+      <c r="Q22">
+        <v>2.652311940253753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.801994064552702</v>
+        <v>4.15239801013945</v>
       </c>
       <c r="C23">
-        <v>0.1203186764649899</v>
+        <v>1.334484099303609</v>
       </c>
       <c r="D23">
-        <v>0.1382006178561568</v>
+        <v>0.05600977061602208</v>
       </c>
       <c r="E23">
-        <v>0.06657746252647456</v>
+        <v>2.318863896154213</v>
       </c>
       <c r="F23">
-        <v>0.904248048359932</v>
+        <v>0.928120888028289</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.03765098383487731</v>
       </c>
       <c r="I23">
-        <v>0.4523743366105322</v>
+        <v>0.0247673592460993</v>
       </c>
       <c r="J23">
-        <v>0.05523264074847845</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>1.586980121823927</v>
+        <v>0.2647099840745284</v>
       </c>
       <c r="L23">
-        <v>0.3294553505156017</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7730634196894517</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.156155181863596</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.7557863148040838</v>
+      </c>
+      <c r="Q23">
+        <v>2.573489979759557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.54463732249809</v>
+        <v>3.561452143728786</v>
       </c>
       <c r="C24">
-        <v>0.108215820612017</v>
+        <v>1.150642580826855</v>
       </c>
       <c r="D24">
-        <v>0.1211466064938094</v>
+        <v>0.04910146358687939</v>
       </c>
       <c r="E24">
-        <v>0.06194052831080654</v>
+        <v>1.986372933764002</v>
       </c>
       <c r="F24">
-        <v>0.8600449526973719</v>
+        <v>0.8108537736916048</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0280456392260322</v>
       </c>
       <c r="I24">
-        <v>0.4500825580201528</v>
+        <v>0.0182603412727449</v>
       </c>
       <c r="J24">
-        <v>0.05532866197277286</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>1.357480825181227</v>
+        <v>0.2507070605224264</v>
       </c>
       <c r="L24">
-        <v>0.2891769810301241</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8367868271179431</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.08587918188519</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.7475692597967765</v>
+      </c>
+      <c r="Q24">
+        <v>2.270444633069275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.269454332014419</v>
+        <v>2.923937495859832</v>
       </c>
       <c r="C25">
-        <v>0.09518896177912239</v>
+        <v>0.9542315282299398</v>
       </c>
       <c r="D25">
-        <v>0.1030359090769508</v>
+        <v>0.04163756774624972</v>
       </c>
       <c r="E25">
-        <v>0.0571804639627711</v>
+        <v>1.63129822821665</v>
       </c>
       <c r="F25">
-        <v>0.8181083006248144</v>
+        <v>0.6883630956942994</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01896200287684469</v>
       </c>
       <c r="I25">
-        <v>0.4509183209480732</v>
+        <v>0.01228932292995033</v>
       </c>
       <c r="J25">
-        <v>0.05569547684427434</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>1.111657000952448</v>
+        <v>0.2373229285210847</v>
       </c>
       <c r="L25">
-        <v>0.2466390764719222</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9101209973046229</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.025627817655646</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.7416954377199545</v>
+      </c>
+      <c r="Q25">
+        <v>1.955353402721784</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.465102307827863</v>
+        <v>2.391084626973395</v>
       </c>
       <c r="C2">
-        <v>0.8030621463397836</v>
+        <v>0.8541655347191295</v>
       </c>
       <c r="D2">
-        <v>0.03574849532067503</v>
+        <v>0.03821985193764021</v>
       </c>
       <c r="E2">
-        <v>1.372070904998836</v>
+        <v>1.371728127183616</v>
       </c>
       <c r="F2">
-        <v>0.6056282885606734</v>
+        <v>0.5739138410971023</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01318929769526017</v>
+        <v>0.01315054212634609</v>
       </c>
       <c r="I2">
-        <v>0.008112514299274842</v>
+        <v>0.008114837857158719</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.2318262591203073</v>
+        <v>0.21030486836381</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1353898070981145</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04175030607840746</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7356496755571484</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.747549888551816</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.7615090138200316</v>
+      </c>
+      <c r="S2">
+        <v>1.638710732999215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.146726709965776</v>
+        <v>2.089265691159483</v>
       </c>
       <c r="C3">
-        <v>0.7055775216799134</v>
+        <v>0.7448270221818802</v>
       </c>
       <c r="D3">
-        <v>0.03196160551709681</v>
+        <v>0.03382082820454002</v>
       </c>
       <c r="E3">
-        <v>1.197080427364497</v>
+        <v>1.197471177583481</v>
       </c>
       <c r="F3">
-        <v>0.5482513021014128</v>
+        <v>0.5223093601039182</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.009728035754513857</v>
+        <v>0.009768499624290865</v>
       </c>
       <c r="I3">
-        <v>0.005921371344725035</v>
+        <v>0.006131978742036193</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.2269748378081786</v>
+        <v>0.2084195068643488</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1395796117457877</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03689639985187121</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7352702223656706</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.60160261374736</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.7532141559383732</v>
+      </c>
+      <c r="S3">
+        <v>1.511883017582193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.950557555757541</v>
+        <v>1.902944958963218</v>
       </c>
       <c r="C4">
-        <v>0.6460308279736751</v>
+        <v>0.6781928371716504</v>
       </c>
       <c r="D4">
-        <v>0.02963485389168952</v>
+        <v>0.03112849091010617</v>
       </c>
       <c r="E4">
-        <v>1.089879083708283</v>
+        <v>1.090682023004419</v>
       </c>
       <c r="F4">
-        <v>0.5135400675362831</v>
+        <v>0.4910039276492029</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.007802060917571296</v>
+        <v>0.007879775251681265</v>
       </c>
       <c r="I4">
-        <v>0.004742512691151113</v>
+        <v>0.005054333229230767</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.2242379230552913</v>
+        <v>0.2074177940397028</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.142220246263264</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03447567671577367</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7357215175992735</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.51348713585773</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.748909811354423</v>
+      </c>
+      <c r="S4">
+        <v>1.435046802839679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.869277000074248</v>
+        <v>1.825622065552523</v>
       </c>
       <c r="C5">
-        <v>0.6226180604332114</v>
+        <v>0.6519595015761581</v>
       </c>
       <c r="D5">
-        <v>0.02872432689317961</v>
+        <v>0.03007299715952882</v>
       </c>
       <c r="E5">
-        <v>1.046217631048592</v>
+        <v>1.047180507239744</v>
       </c>
       <c r="F5">
-        <v>0.4990283348445672</v>
+        <v>0.4778600436466363</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.007061537371190085</v>
+        <v>0.007151837047381315</v>
       </c>
       <c r="I5">
-        <v>0.004352945504469297</v>
+        <v>0.004712346003006296</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.2228544766308431</v>
+        <v>0.2067427237135036</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1431573061832978</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03355260661058956</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7364644148171422</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.476260075881299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.7477698945080533</v>
+      </c>
+      <c r="S5">
+        <v>1.402359778798115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.854350721464613</v>
+        <v>1.811373975635462</v>
       </c>
       <c r="C6">
-        <v>0.6196971615062239</v>
+        <v>0.6485984151501043</v>
       </c>
       <c r="D6">
-        <v>0.02861998003978883</v>
+        <v>0.0299465468930471</v>
       </c>
       <c r="E6">
-        <v>1.03894835578653</v>
+        <v>1.039937761145893</v>
       </c>
       <c r="F6">
-        <v>0.4960325574134714</v>
+        <v>0.4751057795348927</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006939262307886052</v>
+        <v>0.007031535316365023</v>
       </c>
       <c r="I6">
-        <v>0.004361822046885955</v>
+        <v>0.004745539104268559</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.2222312328479532</v>
+        <v>0.2062630101125293</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1431240773879523</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0333154669186797</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7370804206487307</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.468067913836336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.7481101533171142</v>
+      </c>
+      <c r="S6">
+        <v>1.394982033414237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.9455734019879</v>
+        <v>1.898087478433524</v>
       </c>
       <c r="C7">
-        <v>0.6483519712589612</v>
+        <v>0.680548913139063</v>
       </c>
       <c r="D7">
-        <v>0.02975101516031131</v>
+        <v>0.03124792306004309</v>
       </c>
       <c r="E7">
-        <v>1.08923156097454</v>
+        <v>1.090038026864889</v>
       </c>
       <c r="F7">
-        <v>0.5117217362469049</v>
+        <v>0.4892509449019684</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.007786234665825509</v>
+        <v>0.007864246568806632</v>
       </c>
       <c r="I7">
-        <v>0.004917181497305023</v>
+        <v>0.005273067447898683</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.2231343679696138</v>
+        <v>0.206401678886909</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.141730003343099</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.03419747680778151</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7370633518884375</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.507430026306878</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.7503276727259021</v>
+      </c>
+      <c r="S7">
+        <v>1.429243416696409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.350258093168179</v>
+        <v>2.282127633698281</v>
       </c>
       <c r="C8">
-        <v>0.7729026105370735</v>
+        <v>0.8199912732448809</v>
       </c>
       <c r="D8">
-        <v>0.03461484674966187</v>
+        <v>0.036881029359499</v>
       </c>
       <c r="E8">
-        <v>1.311591537689566</v>
+        <v>1.31151272857565</v>
       </c>
       <c r="F8">
-        <v>0.5835719933987846</v>
+        <v>0.5539482770688124</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.01194317198393147</v>
+        <v>0.0119345063368832</v>
       </c>
       <c r="I8">
-        <v>0.007532051950366103</v>
+        <v>0.007667044052383609</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.2286648571622649</v>
+        <v>0.2083027153280455</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1362202707346292</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03955402943773301</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7371993774776513</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.689513414389182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.7604632296966898</v>
+      </c>
+      <c r="S8">
+        <v>1.587655878056523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.145941281690455</v>
+        <v>3.034488278993081</v>
       </c>
       <c r="C9">
-        <v>1.015328889546623</v>
+        <v>1.093021689661612</v>
       </c>
       <c r="D9">
-        <v>0.04391669283135968</v>
+        <v>0.04776375963370327</v>
       </c>
       <c r="E9">
-        <v>1.750637977600746</v>
+        <v>1.748457944463127</v>
       </c>
       <c r="F9">
-        <v>0.7320993624930736</v>
+        <v>0.6871774558289303</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.02188448128372089</v>
+        <v>0.02160337417788227</v>
       </c>
       <c r="I9">
-        <v>0.01387599481073831</v>
+        <v>0.01326633302518054</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.2435673143164152</v>
+        <v>0.2151996875710154</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1267542033498081</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0551762055876388</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.7406881902715696</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>2.070169352412279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.7841629613776178</v>
+      </c>
+      <c r="S9">
+        <v>1.917599286034829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.711401395780058</v>
+        <v>3.568009889240386</v>
       </c>
       <c r="C10">
-        <v>1.188777628039304</v>
+        <v>1.288658113719634</v>
       </c>
       <c r="D10">
-        <v>0.05171149238808681</v>
+        <v>0.05678130946502336</v>
       </c>
       <c r="E10">
-        <v>1.973468941674099</v>
+        <v>1.969587932192596</v>
       </c>
       <c r="F10">
-        <v>0.8341179179607252</v>
+        <v>0.7780780879182743</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.02977118703811099</v>
+        <v>0.02922680642492193</v>
       </c>
       <c r="I10">
-        <v>0.01958275191260306</v>
+        <v>0.01828675465048857</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.2519572231911731</v>
+        <v>0.2179698289160079</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1189580206804273</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.06816198349731195</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7536928724115626</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.323977260686178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.812543149418147</v>
+      </c>
+      <c r="S10">
+        <v>2.134951301531629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.831625743044754</v>
+        <v>3.688487947057183</v>
       </c>
       <c r="C11">
-        <v>1.198619761238149</v>
+        <v>1.297053459551819</v>
       </c>
       <c r="D11">
-        <v>0.06370263995789571</v>
+        <v>0.06934858700666524</v>
       </c>
       <c r="E11">
-        <v>1.280939693847898</v>
+        <v>1.277501522264799</v>
       </c>
       <c r="F11">
-        <v>0.7925136309763019</v>
+        <v>0.7392201737826269</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.04486289272328747</v>
+        <v>0.04431765757169259</v>
       </c>
       <c r="I11">
-        <v>0.02126051008093732</v>
+        <v>0.01990078943866891</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.2241641187461028</v>
+        <v>0.1937236667650346</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1067790403053941</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.06335969323409785</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8169834183230762</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>2.14379021183467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.882482392819</v>
+      </c>
+      <c r="S11">
+        <v>1.967153274441927</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.818956623502686</v>
+        <v>3.682807548543963</v>
       </c>
       <c r="C12">
-        <v>1.166437825203332</v>
+        <v>1.258804402052476</v>
       </c>
       <c r="D12">
-        <v>0.07265771114678898</v>
+        <v>0.07846477076029856</v>
       </c>
       <c r="E12">
-        <v>0.7821254464756038</v>
+        <v>0.7793040402701195</v>
       </c>
       <c r="F12">
-        <v>0.7391116204461241</v>
+        <v>0.6903106122243372</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.08047570254894509</v>
+        <v>0.07997134045338328</v>
       </c>
       <c r="I12">
-        <v>0.02121975553871902</v>
+        <v>0.01986815647865381</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.201555994355104</v>
+        <v>0.1749773137686894</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09921534912095531</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.05714108725732103</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8691110149933508</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.952105857507235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.9361722274180124</v>
+      </c>
+      <c r="S12">
+        <v>1.792734654390244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.697403056922269</v>
+        <v>3.573915008923734</v>
       </c>
       <c r="C13">
-        <v>1.104656666803436</v>
+        <v>1.187332940204954</v>
       </c>
       <c r="D13">
-        <v>0.07988122240024609</v>
+        <v>0.08553552315785851</v>
       </c>
       <c r="E13">
-        <v>0.403592261347967</v>
+        <v>0.4014553734123396</v>
       </c>
       <c r="F13">
-        <v>0.6711688180406412</v>
+        <v>0.6284748996586984</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1331878621129334</v>
+        <v>0.1327537111050532</v>
       </c>
       <c r="I13">
-        <v>0.02012350687316999</v>
+        <v>0.01891198506596758</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.1799098842370732</v>
+        <v>0.1577453651489122</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09374634185898145</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0490946141265276</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9167649559152125</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.732429152121199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.9816788340010447</v>
+      </c>
+      <c r="S13">
+        <v>1.595097308923243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.562532871758776</v>
+        <v>3.450354945133427</v>
       </c>
       <c r="C14">
-        <v>1.04934145285722</v>
+        <v>1.123756263369927</v>
       </c>
       <c r="D14">
-        <v>0.08422236104130576</v>
+        <v>0.08961866228069226</v>
       </c>
       <c r="E14">
-        <v>0.2115866873553642</v>
+        <v>0.2099055653593282</v>
       </c>
       <c r="F14">
-        <v>0.6172230813106196</v>
+        <v>0.5794404767529429</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1805382885743683</v>
+        <v>0.1801614937406129</v>
       </c>
       <c r="I14">
-        <v>0.0189903438267347</v>
+        <v>0.01794361514267884</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.1652038554576158</v>
+        <v>0.1463096182470451</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09068087758284626</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.04279314435925485</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9486291362177042</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.56692139466216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.010302475797602</v>
+      </c>
+      <c r="S14">
+        <v>1.446799730573247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.50528300245378</v>
+        <v>3.397044805048722</v>
       </c>
       <c r="C15">
-        <v>1.030617052039531</v>
+        <v>1.102306088826538</v>
       </c>
       <c r="D15">
-        <v>0.084874014144809</v>
+        <v>0.0901481668845534</v>
       </c>
       <c r="E15">
-        <v>0.1738289717171249</v>
+        <v>0.1722768246142437</v>
       </c>
       <c r="F15">
-        <v>0.6004573998689509</v>
+        <v>0.5642221103051952</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1923806759016742</v>
+        <v>0.1920254795027034</v>
       </c>
       <c r="I15">
-        <v>0.01857485057124997</v>
+        <v>0.01761884524159996</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.1614221434776155</v>
+        <v>0.143475280333444</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09016091328713394</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.04080854833603809</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9555671958766681</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.518550065905373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.015765315018243</v>
+      </c>
+      <c r="S15">
+        <v>1.403691510284688</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.287755325529986</v>
+        <v>3.190374788181259</v>
       </c>
       <c r="C16">
-        <v>0.97201193223259</v>
+        <v>1.03658525977346</v>
       </c>
       <c r="D16">
-        <v>0.07983488163953467</v>
+        <v>0.08457433989170227</v>
       </c>
       <c r="E16">
-        <v>0.1698710467815658</v>
+        <v>0.1686013364589307</v>
       </c>
       <c r="F16">
-        <v>0.5707233082417034</v>
+        <v>0.537737745103037</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1772032913195432</v>
+        <v>0.1769301521685804</v>
       </c>
       <c r="I16">
-        <v>0.01647022295229927</v>
+        <v>0.01581147450642462</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926776106</v>
       </c>
       <c r="K16">
-        <v>0.1617709130041831</v>
+        <v>0.1450981697347657</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09316921416638735</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03734600307923586</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.937867676346599</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.455279214376418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.9916370814814286</v>
+      </c>
+      <c r="S16">
+        <v>1.350384508767405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.192112793346666</v>
+        <v>3.097106052768083</v>
       </c>
       <c r="C17">
-        <v>0.9562576358154899</v>
+        <v>1.019683174311353</v>
       </c>
       <c r="D17">
-        <v>0.073673301587732</v>
+        <v>0.07815510294664563</v>
       </c>
       <c r="E17">
-        <v>0.2550301132087966</v>
+        <v>0.2537965226362289</v>
       </c>
       <c r="F17">
-        <v>0.5762807595610937</v>
+        <v>0.5432565315625126</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1385276988892343</v>
+        <v>0.1382888304398193</v>
       </c>
       <c r="I17">
-        <v>0.01547295828374473</v>
+        <v>0.01495751624217245</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234339</v>
       </c>
       <c r="K17">
-        <v>0.1697163050185502</v>
+        <v>0.1523658355541215</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09734037460920852</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03785787863076706</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9077986754948171</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.493376239634273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.9584921976832987</v>
+      </c>
+      <c r="S17">
+        <v>1.387328302778513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.193407943312991</v>
+        <v>3.09377661453334</v>
       </c>
       <c r="C18">
-        <v>0.973797045724865</v>
+        <v>1.041032768373498</v>
       </c>
       <c r="D18">
-        <v>0.06597667102445826</v>
+        <v>0.07037807100907401</v>
       </c>
       <c r="E18">
-        <v>0.4901173140233439</v>
+        <v>0.4886871743483994</v>
       </c>
       <c r="F18">
-        <v>0.6145190741168847</v>
+        <v>0.5785457753230219</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.08649451918476814</v>
+        <v>0.08625201760774814</v>
       </c>
       <c r="I18">
-        <v>0.01508059669455086</v>
+        <v>0.01454496246664139</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146320727</v>
       </c>
       <c r="K18">
-        <v>0.1863012495782286</v>
+        <v>0.1663749545574262</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1034996069136671</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.04202752676073374</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8634937075511147</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.630031497916264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.9132820087354929</v>
+      </c>
+      <c r="S18">
+        <v>1.512728243205913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.265666839105677</v>
+        <v>3.156166619779015</v>
       </c>
       <c r="C19">
-        <v>1.022866781627442</v>
+        <v>1.097997890335023</v>
       </c>
       <c r="D19">
-        <v>0.05829764811889504</v>
+        <v>0.06273627859155084</v>
       </c>
       <c r="E19">
-        <v>0.9270569363912387</v>
+        <v>0.9251598260956655</v>
       </c>
       <c r="F19">
-        <v>0.6749631581428872</v>
+        <v>0.6338213403926574</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.04417109081135351</v>
+        <v>0.04388513644514092</v>
       </c>
       <c r="I19">
-        <v>0.01571852867008694</v>
+        <v>0.01513603438221356</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768438788</v>
       </c>
       <c r="K19">
-        <v>0.2079646773003532</v>
+        <v>0.1840812257532498</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1105175269189669</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04857088067612736</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8164390746409822</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.833779961002875</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.8669390095167131</v>
+      </c>
+      <c r="S19">
+        <v>1.697460628455588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.549937117171396</v>
+        <v>3.415461148713348</v>
       </c>
       <c r="C20">
-        <v>1.151186985265781</v>
+        <v>1.245455604058066</v>
       </c>
       <c r="D20">
-        <v>0.05011650946466517</v>
+        <v>0.05488483516565168</v>
       </c>
       <c r="E20">
-        <v>1.910320376838911</v>
+        <v>1.90691816208728</v>
       </c>
       <c r="F20">
-        <v>0.8015272075093662</v>
+        <v>0.7487064647455384</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02752705158259205</v>
+        <v>0.02705917914345379</v>
       </c>
       <c r="I20">
-        <v>0.01857429593985938</v>
+        <v>0.01763641536984384</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.2461368779320807</v>
+        <v>0.2140332537460239</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1198159726216694</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.06332521869305907</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7548775005479058</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>2.237697974901891</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.8101104863739721</v>
+      </c>
+      <c r="S20">
+        <v>2.059413001798845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.008876642562313</v>
+        <v>3.846529741705979</v>
       </c>
       <c r="C21">
-        <v>1.296771728276497</v>
+        <v>1.410474183204769</v>
       </c>
       <c r="D21">
-        <v>0.0546542816856217</v>
+        <v>0.06037157261295079</v>
       </c>
       <c r="E21">
-        <v>2.24174580994773</v>
+        <v>2.236688415751175</v>
       </c>
       <c r="F21">
-        <v>0.897835673631846</v>
+        <v>0.8347555939783291</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.0353192895739185</v>
+        <v>0.03459375628391559</v>
       </c>
       <c r="I21">
-        <v>0.02352466348790028</v>
+        <v>0.02192012443792013</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>0.2594359526493726</v>
+        <v>0.2217098764926853</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1159050138539435</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07631622276294436</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7563527418009528</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.492692041730891</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.8235316390353375</v>
+      </c>
+      <c r="S21">
+        <v>2.280134802204685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.306406035505859</v>
+        <v>4.126130930454167</v>
       </c>
       <c r="C22">
-        <v>1.384733672645211</v>
+        <v>1.51049998704724</v>
       </c>
       <c r="D22">
-        <v>0.05790239804387198</v>
+        <v>0.06424108779285831</v>
       </c>
       <c r="E22">
-        <v>2.407188167299495</v>
+        <v>2.401027565409379</v>
       </c>
       <c r="F22">
-        <v>0.9588132431970138</v>
+        <v>0.8892025052068675</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.04036632308180188</v>
+        <v>0.03945871544929735</v>
       </c>
       <c r="I22">
-        <v>0.02672435835552101</v>
+        <v>0.02457783351487297</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>0.2680930100571715</v>
+        <v>0.2267748130256493</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1132885790103764</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.085332252380244</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7591464501100518</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.652311940253753</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.8339859549666357</v>
+      </c>
+      <c r="S22">
+        <v>2.418044369542287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.15239801013945</v>
+        <v>3.981596692407322</v>
       </c>
       <c r="C23">
-        <v>1.334484099303609</v>
+        <v>1.453657536779474</v>
       </c>
       <c r="D23">
-        <v>0.05600977061602208</v>
+        <v>0.06200614835034202</v>
       </c>
       <c r="E23">
-        <v>2.318863896154213</v>
+        <v>2.313296469106248</v>
       </c>
       <c r="F23">
-        <v>0.928120888028289</v>
+        <v>0.8619288249884534</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.03765098383487731</v>
+        <v>0.03684195089155073</v>
       </c>
       <c r="I23">
-        <v>0.0247673592460993</v>
+        <v>0.02285035820132464</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>0.2647099840745284</v>
+        <v>0.2251782668259459</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1150600737282375</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.08094798776901513</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7557863148040838</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.573489979759557</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.8263445685612965</v>
+      </c>
+      <c r="S23">
+        <v>2.350520170539966</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.561452143728786</v>
+        <v>3.425883997693063</v>
       </c>
       <c r="C24">
-        <v>1.150642580826855</v>
+        <v>1.24548253468862</v>
       </c>
       <c r="D24">
-        <v>0.04910146358687939</v>
+        <v>0.05383895895729296</v>
       </c>
       <c r="E24">
-        <v>1.986372933764002</v>
+        <v>1.982881626593255</v>
       </c>
       <c r="F24">
-        <v>0.8108537736916048</v>
+        <v>0.7573627244669154</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0280456392260322</v>
+        <v>0.02756882665173777</v>
       </c>
       <c r="I24">
-        <v>0.0182603412727449</v>
+        <v>0.0172125182930003</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.2507070605224264</v>
+        <v>0.2179405040897535</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.121355995743226</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.06476156761587148</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7475692597967765</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.270444633069275</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.8023793463005546</v>
+      </c>
+      <c r="S24">
+        <v>2.089565265356271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.923937495859832</v>
+        <v>2.824690730812108</v>
       </c>
       <c r="C25">
-        <v>0.9542315282299398</v>
+        <v>1.023648931786482</v>
       </c>
       <c r="D25">
-        <v>0.04163756774624972</v>
+        <v>0.04506036770617783</v>
       </c>
       <c r="E25">
-        <v>1.63129822821665</v>
+        <v>1.629738459152364</v>
       </c>
       <c r="F25">
-        <v>0.6883630956942994</v>
+        <v>0.6478270222792588</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.01896200287684469</v>
+        <v>0.01876782948534661</v>
       </c>
       <c r="I25">
-        <v>0.01228932292995033</v>
+        <v>0.01199611815501544</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.2373229285210847</v>
+        <v>0.2113898456222572</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1285379436682774</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.04981108854177663</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,10 +1832,16 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.7416954377199545</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.955353402721784</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7798600329381031</v>
+      </c>
+      <c r="S25">
+        <v>1.817409531254157</v>
       </c>
     </row>
   </sheetData>
